--- a/GameSDL26_2/map_2/Book2.xlsx
+++ b/GameSDL26_2/map_2/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEOMETRY_DASH\GEOMETRY_DASH\GameSDL26_2\map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A31D143-D68F-4F71-9EA4-86714B8FF155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1423B7-6386-422F-A872-E07F63B8CACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09EF9F5-0415-444F-A6C4-CAEE74711D34}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <definedName name="map_22222_excel_8" localSheetId="0">Sheet1!$A$9:$OJ$9</definedName>
     <definedName name="map_22222_excel_9" localSheetId="0">Sheet1!$A$10:$OJ$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8533,7 +8533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8600,6 +8600,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -8613,7 +8631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -8625,6 +8643,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8643,23 +8664,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_21" connectionId="14" xr16:uid="{163BB0C2-A66A-4C54-8402-6E03EAED2212}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="16" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_11" connectionId="4" xr16:uid="{08FDAA02-DD3B-430D-A15E-9D155D87B823}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_9" connectionId="21" xr16:uid="{C22B4C7F-5EEC-4CC0-924E-85680D653D1B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="20" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8667,7 +8688,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="18" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8675,31 +8696,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="16" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="18" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_18" connectionId="11" xr16:uid="{A61F3F71-E52E-4953-8AF0-0CB92993993E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_20" connectionId="12" xr16:uid="{1CA421F0-C3FC-4DED-AEAC-55E0140C5297}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="15" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="13" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_20" connectionId="12" xr16:uid="{1CA421F0-C3FC-4DED-AEAC-55E0140C5297}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_18" connectionId="11" xr16:uid="{A61F3F71-E52E-4953-8AF0-0CB92993993E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_16" connectionId="9" xr16:uid="{0D034489-77D4-477F-9975-AEF6B66B3BC6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8707,23 +8728,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_16" connectionId="9" xr16:uid="{0D034489-77D4-477F-9975-AEF6B66B3BC6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_21" connectionId="14" xr16:uid="{163BB0C2-A66A-4C54-8402-6E03EAED2212}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="13" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="20" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_9" connectionId="21" xr16:uid="{C22B4C7F-5EEC-4CC0-924E-85680D653D1B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9025,13 +9046,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3286C0E-A788-441C-87F1-658D2013A9EA}">
   <dimension ref="A1:OJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HS1" workbookViewId="0">
-      <selection activeCell="JR11" sqref="A1:OJ20"/>
+    <sheetView tabSelected="1" topLeftCell="LG1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="MY8" sqref="A1:OJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="400" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="16" max="16" width="4.21875" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" customWidth="1"/>
+    <col min="18" max="55" width="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="298" width="3" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="3.88671875" customWidth="1"/>
+    <col min="300" max="301" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="302" max="322" width="3" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="3.88671875" customWidth="1"/>
+    <col min="324" max="324" width="5" customWidth="1"/>
+    <col min="325" max="343" width="3" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="4.109375" customWidth="1"/>
+    <col min="345" max="345" width="5.33203125" customWidth="1"/>
+    <col min="346" max="363" width="3" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="4.109375" customWidth="1"/>
+    <col min="365" max="365" width="5.109375" customWidth="1"/>
+    <col min="366" max="400" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:400" x14ac:dyDescent="0.3">
@@ -9672,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="HE1" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="HF1" s="6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="HG1">
         <v>0</v>
@@ -9968,11 +10007,11 @@
       <c r="KY1">
         <v>0</v>
       </c>
-      <c r="KZ1">
-        <v>0</v>
-      </c>
-      <c r="LA1">
-        <v>0</v>
+      <c r="KZ1" s="13">
+        <v>94</v>
+      </c>
+      <c r="LA1" s="13">
+        <v>95</v>
       </c>
       <c r="LB1">
         <v>0</v>
@@ -10055,17 +10094,17 @@
       <c r="MB1">
         <v>0</v>
       </c>
-      <c r="MC1">
-        <v>0</v>
-      </c>
-      <c r="MD1">
-        <v>0</v>
-      </c>
-      <c r="ME1">
-        <v>0</v>
-      </c>
-      <c r="MF1">
-        <v>0</v>
+      <c r="MC1" s="12">
+        <v>75</v>
+      </c>
+      <c r="MD1" s="12">
+        <v>76</v>
+      </c>
+      <c r="ME1" s="12">
+        <v>77</v>
+      </c>
+      <c r="MF1" s="12">
+        <v>78</v>
       </c>
       <c r="MG1">
         <v>0</v>
@@ -10097,17 +10136,17 @@
       <c r="MP1">
         <v>0</v>
       </c>
-      <c r="MQ1">
-        <v>0</v>
-      </c>
-      <c r="MR1">
-        <v>0</v>
-      </c>
-      <c r="MS1">
-        <v>0</v>
-      </c>
-      <c r="MT1">
-        <v>0</v>
+      <c r="MQ1" s="12">
+        <v>75</v>
+      </c>
+      <c r="MR1" s="12">
+        <v>76</v>
+      </c>
+      <c r="MS1" s="12">
+        <v>77</v>
+      </c>
+      <c r="MT1" s="12">
+        <v>78</v>
       </c>
       <c r="MU1">
         <v>0</v>
@@ -10874,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="HE2" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="HF2" s="6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="HG2">
         <v>0</v>
@@ -11167,17 +11206,17 @@
       <c r="KX2">
         <v>0</v>
       </c>
-      <c r="KY2">
-        <v>0</v>
-      </c>
-      <c r="KZ2">
-        <v>0</v>
-      </c>
-      <c r="LA2">
-        <v>0</v>
-      </c>
-      <c r="LB2">
-        <v>0</v>
+      <c r="KY2" s="12">
+        <v>75</v>
+      </c>
+      <c r="KZ2" s="12">
+        <v>76</v>
+      </c>
+      <c r="LA2" s="12">
+        <v>77</v>
+      </c>
+      <c r="LB2" s="12">
+        <v>78</v>
       </c>
       <c r="LC2">
         <v>0</v>
@@ -11257,17 +11296,17 @@
       <c r="MB2">
         <v>0</v>
       </c>
-      <c r="MC2">
-        <v>0</v>
-      </c>
-      <c r="MD2">
-        <v>0</v>
-      </c>
-      <c r="ME2">
-        <v>0</v>
-      </c>
-      <c r="MF2">
-        <v>0</v>
+      <c r="MC2" s="12">
+        <v>79</v>
+      </c>
+      <c r="MD2" s="12">
+        <v>80</v>
+      </c>
+      <c r="ME2" s="12">
+        <v>81</v>
+      </c>
+      <c r="MF2" s="12">
+        <v>82</v>
       </c>
       <c r="MG2">
         <v>0</v>
@@ -11299,17 +11338,17 @@
       <c r="MP2">
         <v>0</v>
       </c>
-      <c r="MQ2">
-        <v>0</v>
-      </c>
-      <c r="MR2">
-        <v>0</v>
-      </c>
-      <c r="MS2">
-        <v>0</v>
-      </c>
-      <c r="MT2">
-        <v>0</v>
+      <c r="MQ2" s="12">
+        <v>79</v>
+      </c>
+      <c r="MR2" s="12">
+        <v>80</v>
+      </c>
+      <c r="MS2" s="12">
+        <v>81</v>
+      </c>
+      <c r="MT2" s="12">
+        <v>82</v>
       </c>
       <c r="MU2">
         <v>0</v>
@@ -12148,10 +12187,10 @@
         <v>0</v>
       </c>
       <c r="IC3" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="ID3" s="6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="IE3">
         <v>0</v>
@@ -12369,17 +12408,17 @@
       <c r="KX3">
         <v>0</v>
       </c>
-      <c r="KY3">
-        <v>0</v>
-      </c>
-      <c r="KZ3">
-        <v>0</v>
-      </c>
-      <c r="LA3">
-        <v>0</v>
-      </c>
-      <c r="LB3">
-        <v>0</v>
+      <c r="KY3" s="12">
+        <v>79</v>
+      </c>
+      <c r="KZ3" s="12">
+        <v>80</v>
+      </c>
+      <c r="LA3" s="12">
+        <v>81</v>
+      </c>
+      <c r="LB3" s="12">
+        <v>82</v>
       </c>
       <c r="LC3">
         <v>0</v>
@@ -12459,17 +12498,17 @@
       <c r="MB3">
         <v>0</v>
       </c>
-      <c r="MC3">
-        <v>0</v>
-      </c>
-      <c r="MD3">
-        <v>0</v>
-      </c>
-      <c r="ME3">
-        <v>0</v>
-      </c>
-      <c r="MF3">
-        <v>0</v>
+      <c r="MC3" s="12">
+        <v>83</v>
+      </c>
+      <c r="MD3" s="12">
+        <v>84</v>
+      </c>
+      <c r="ME3" s="12">
+        <v>85</v>
+      </c>
+      <c r="MF3" s="12">
+        <v>86</v>
       </c>
       <c r="MG3">
         <v>0</v>
@@ -12501,17 +12540,17 @@
       <c r="MP3">
         <v>0</v>
       </c>
-      <c r="MQ3">
-        <v>0</v>
-      </c>
-      <c r="MR3">
-        <v>0</v>
-      </c>
-      <c r="MS3">
-        <v>0</v>
-      </c>
-      <c r="MT3">
-        <v>0</v>
+      <c r="MQ3" s="12">
+        <v>83</v>
+      </c>
+      <c r="MR3" s="12">
+        <v>84</v>
+      </c>
+      <c r="MS3" s="12">
+        <v>85</v>
+      </c>
+      <c r="MT3" s="12">
+        <v>86</v>
       </c>
       <c r="MU3">
         <v>0</v>
@@ -13350,329 +13389,329 @@
         <v>0</v>
       </c>
       <c r="IC4" s="6">
+        <v>94</v>
+      </c>
+      <c r="ID4" s="6">
+        <v>95</v>
+      </c>
+      <c r="IE4">
+        <v>0</v>
+      </c>
+      <c r="IF4">
+        <v>0</v>
+      </c>
+      <c r="IG4">
+        <v>0</v>
+      </c>
+      <c r="IH4">
+        <v>0</v>
+      </c>
+      <c r="II4">
+        <v>0</v>
+      </c>
+      <c r="IJ4">
+        <v>0</v>
+      </c>
+      <c r="IK4">
+        <v>0</v>
+      </c>
+      <c r="IL4">
+        <v>0</v>
+      </c>
+      <c r="IM4">
+        <v>0</v>
+      </c>
+      <c r="IN4">
+        <v>0</v>
+      </c>
+      <c r="IO4">
+        <v>0</v>
+      </c>
+      <c r="IP4">
+        <v>0</v>
+      </c>
+      <c r="IQ4">
+        <v>0</v>
+      </c>
+      <c r="IR4">
+        <v>0</v>
+      </c>
+      <c r="IS4">
+        <v>0</v>
+      </c>
+      <c r="IT4">
+        <v>0</v>
+      </c>
+      <c r="IU4">
+        <v>0</v>
+      </c>
+      <c r="IV4">
+        <v>0</v>
+      </c>
+      <c r="IW4">
+        <v>0</v>
+      </c>
+      <c r="IX4">
+        <v>0</v>
+      </c>
+      <c r="IY4">
+        <v>0</v>
+      </c>
+      <c r="IZ4">
+        <v>0</v>
+      </c>
+      <c r="JA4">
+        <v>0</v>
+      </c>
+      <c r="JB4">
+        <v>0</v>
+      </c>
+      <c r="JC4">
+        <v>0</v>
+      </c>
+      <c r="JD4">
+        <v>0</v>
+      </c>
+      <c r="JE4">
+        <v>0</v>
+      </c>
+      <c r="JF4">
+        <v>0</v>
+      </c>
+      <c r="JG4">
+        <v>0</v>
+      </c>
+      <c r="JH4">
+        <v>0</v>
+      </c>
+      <c r="JI4">
+        <v>0</v>
+      </c>
+      <c r="JJ4">
+        <v>0</v>
+      </c>
+      <c r="JK4">
+        <v>0</v>
+      </c>
+      <c r="JL4">
+        <v>0</v>
+      </c>
+      <c r="JM4">
+        <v>0</v>
+      </c>
+      <c r="JN4">
+        <v>0</v>
+      </c>
+      <c r="JO4">
+        <v>0</v>
+      </c>
+      <c r="JP4">
+        <v>0</v>
+      </c>
+      <c r="JQ4">
+        <v>0</v>
+      </c>
+      <c r="JR4">
+        <v>0</v>
+      </c>
+      <c r="JS4">
+        <v>0</v>
+      </c>
+      <c r="JT4">
+        <v>0</v>
+      </c>
+      <c r="JU4">
+        <v>0</v>
+      </c>
+      <c r="JV4">
+        <v>0</v>
+      </c>
+      <c r="JW4">
+        <v>0</v>
+      </c>
+      <c r="JX4">
+        <v>0</v>
+      </c>
+      <c r="JY4">
+        <v>0</v>
+      </c>
+      <c r="JZ4">
+        <v>0</v>
+      </c>
+      <c r="KA4">
+        <v>0</v>
+      </c>
+      <c r="KB4">
+        <v>0</v>
+      </c>
+      <c r="KC4">
+        <v>0</v>
+      </c>
+      <c r="KD4">
+        <v>0</v>
+      </c>
+      <c r="KE4">
+        <v>0</v>
+      </c>
+      <c r="KF4">
+        <v>0</v>
+      </c>
+      <c r="KG4">
+        <v>0</v>
+      </c>
+      <c r="KH4">
+        <v>0</v>
+      </c>
+      <c r="KI4">
+        <v>0</v>
+      </c>
+      <c r="KJ4">
+        <v>0</v>
+      </c>
+      <c r="KK4">
+        <v>0</v>
+      </c>
+      <c r="KL4">
+        <v>0</v>
+      </c>
+      <c r="KM4">
+        <v>0</v>
+      </c>
+      <c r="KN4">
+        <v>0</v>
+      </c>
+      <c r="KO4">
+        <v>0</v>
+      </c>
+      <c r="KP4">
+        <v>0</v>
+      </c>
+      <c r="KQ4">
+        <v>0</v>
+      </c>
+      <c r="KR4">
+        <v>0</v>
+      </c>
+      <c r="KS4">
+        <v>0</v>
+      </c>
+      <c r="KT4">
+        <v>0</v>
+      </c>
+      <c r="KU4">
+        <v>0</v>
+      </c>
+      <c r="KV4">
+        <v>0</v>
+      </c>
+      <c r="KW4">
+        <v>0</v>
+      </c>
+      <c r="KX4">
+        <v>0</v>
+      </c>
+      <c r="KY4" s="12">
+        <v>83</v>
+      </c>
+      <c r="KZ4" s="12">
+        <v>84</v>
+      </c>
+      <c r="LA4" s="12">
+        <v>85</v>
+      </c>
+      <c r="LB4" s="12">
+        <v>86</v>
+      </c>
+      <c r="LC4">
+        <v>0</v>
+      </c>
+      <c r="LD4">
+        <v>0</v>
+      </c>
+      <c r="LE4">
+        <v>0</v>
+      </c>
+      <c r="LF4">
+        <v>0</v>
+      </c>
+      <c r="LG4">
+        <v>0</v>
+      </c>
+      <c r="LH4">
+        <v>0</v>
+      </c>
+      <c r="LI4">
+        <v>0</v>
+      </c>
+      <c r="LJ4">
+        <v>0</v>
+      </c>
+      <c r="LK4">
+        <v>0</v>
+      </c>
+      <c r="LL4">
+        <v>0</v>
+      </c>
+      <c r="LM4">
+        <v>0</v>
+      </c>
+      <c r="LN4">
+        <v>0</v>
+      </c>
+      <c r="LO4">
+        <v>0</v>
+      </c>
+      <c r="LP4">
+        <v>0</v>
+      </c>
+      <c r="LQ4">
+        <v>0</v>
+      </c>
+      <c r="LR4">
+        <v>0</v>
+      </c>
+      <c r="LS4">
+        <v>0</v>
+      </c>
+      <c r="LT4">
+        <v>0</v>
+      </c>
+      <c r="LU4">
+        <v>0</v>
+      </c>
+      <c r="LV4">
+        <v>0</v>
+      </c>
+      <c r="LW4">
+        <v>0</v>
+      </c>
+      <c r="LX4">
+        <v>0</v>
+      </c>
+      <c r="LY4">
+        <v>0</v>
+      </c>
+      <c r="LZ4">
+        <v>0</v>
+      </c>
+      <c r="MA4">
+        <v>0</v>
+      </c>
+      <c r="MB4">
+        <v>0</v>
+      </c>
+      <c r="MC4" s="12">
+        <v>87</v>
+      </c>
+      <c r="MD4" s="12">
+        <v>88</v>
+      </c>
+      <c r="ME4" s="12">
+        <v>89</v>
+      </c>
+      <c r="MF4" s="12">
         <v>90</v>
       </c>
-      <c r="ID4" s="6">
-        <v>91</v>
-      </c>
-      <c r="IE4">
-        <v>0</v>
-      </c>
-      <c r="IF4">
-        <v>0</v>
-      </c>
-      <c r="IG4">
-        <v>0</v>
-      </c>
-      <c r="IH4">
-        <v>0</v>
-      </c>
-      <c r="II4">
-        <v>0</v>
-      </c>
-      <c r="IJ4">
-        <v>0</v>
-      </c>
-      <c r="IK4">
-        <v>0</v>
-      </c>
-      <c r="IL4">
-        <v>0</v>
-      </c>
-      <c r="IM4">
-        <v>0</v>
-      </c>
-      <c r="IN4">
-        <v>0</v>
-      </c>
-      <c r="IO4">
-        <v>0</v>
-      </c>
-      <c r="IP4">
-        <v>0</v>
-      </c>
-      <c r="IQ4">
-        <v>0</v>
-      </c>
-      <c r="IR4">
-        <v>0</v>
-      </c>
-      <c r="IS4">
-        <v>0</v>
-      </c>
-      <c r="IT4">
-        <v>0</v>
-      </c>
-      <c r="IU4">
-        <v>0</v>
-      </c>
-      <c r="IV4">
-        <v>0</v>
-      </c>
-      <c r="IW4">
-        <v>0</v>
-      </c>
-      <c r="IX4">
-        <v>0</v>
-      </c>
-      <c r="IY4">
-        <v>0</v>
-      </c>
-      <c r="IZ4">
-        <v>0</v>
-      </c>
-      <c r="JA4">
-        <v>0</v>
-      </c>
-      <c r="JB4">
-        <v>0</v>
-      </c>
-      <c r="JC4">
-        <v>0</v>
-      </c>
-      <c r="JD4">
-        <v>0</v>
-      </c>
-      <c r="JE4">
-        <v>0</v>
-      </c>
-      <c r="JF4">
-        <v>0</v>
-      </c>
-      <c r="JG4">
-        <v>0</v>
-      </c>
-      <c r="JH4">
-        <v>0</v>
-      </c>
-      <c r="JI4">
-        <v>0</v>
-      </c>
-      <c r="JJ4">
-        <v>0</v>
-      </c>
-      <c r="JK4">
-        <v>0</v>
-      </c>
-      <c r="JL4">
-        <v>0</v>
-      </c>
-      <c r="JM4">
-        <v>0</v>
-      </c>
-      <c r="JN4">
-        <v>0</v>
-      </c>
-      <c r="JO4">
-        <v>0</v>
-      </c>
-      <c r="JP4">
-        <v>0</v>
-      </c>
-      <c r="JQ4">
-        <v>0</v>
-      </c>
-      <c r="JR4">
-        <v>0</v>
-      </c>
-      <c r="JS4">
-        <v>0</v>
-      </c>
-      <c r="JT4">
-        <v>0</v>
-      </c>
-      <c r="JU4">
-        <v>0</v>
-      </c>
-      <c r="JV4">
-        <v>0</v>
-      </c>
-      <c r="JW4">
-        <v>0</v>
-      </c>
-      <c r="JX4">
-        <v>0</v>
-      </c>
-      <c r="JY4">
-        <v>0</v>
-      </c>
-      <c r="JZ4">
-        <v>0</v>
-      </c>
-      <c r="KA4">
-        <v>0</v>
-      </c>
-      <c r="KB4">
-        <v>0</v>
-      </c>
-      <c r="KC4">
-        <v>0</v>
-      </c>
-      <c r="KD4">
-        <v>0</v>
-      </c>
-      <c r="KE4">
-        <v>0</v>
-      </c>
-      <c r="KF4">
-        <v>0</v>
-      </c>
-      <c r="KG4">
-        <v>0</v>
-      </c>
-      <c r="KH4">
-        <v>0</v>
-      </c>
-      <c r="KI4">
-        <v>0</v>
-      </c>
-      <c r="KJ4">
-        <v>0</v>
-      </c>
-      <c r="KK4">
-        <v>0</v>
-      </c>
-      <c r="KL4">
-        <v>0</v>
-      </c>
-      <c r="KM4">
-        <v>0</v>
-      </c>
-      <c r="KN4">
-        <v>0</v>
-      </c>
-      <c r="KO4">
-        <v>0</v>
-      </c>
-      <c r="KP4">
-        <v>0</v>
-      </c>
-      <c r="KQ4">
-        <v>0</v>
-      </c>
-      <c r="KR4">
-        <v>0</v>
-      </c>
-      <c r="KS4">
-        <v>0</v>
-      </c>
-      <c r="KT4">
-        <v>0</v>
-      </c>
-      <c r="KU4">
-        <v>0</v>
-      </c>
-      <c r="KV4">
-        <v>0</v>
-      </c>
-      <c r="KW4">
-        <v>0</v>
-      </c>
-      <c r="KX4">
-        <v>0</v>
-      </c>
-      <c r="KY4">
-        <v>0</v>
-      </c>
-      <c r="KZ4">
-        <v>0</v>
-      </c>
-      <c r="LA4">
-        <v>0</v>
-      </c>
-      <c r="LB4">
-        <v>0</v>
-      </c>
-      <c r="LC4">
-        <v>0</v>
-      </c>
-      <c r="LD4">
-        <v>0</v>
-      </c>
-      <c r="LE4">
-        <v>0</v>
-      </c>
-      <c r="LF4">
-        <v>0</v>
-      </c>
-      <c r="LG4">
-        <v>0</v>
-      </c>
-      <c r="LH4">
-        <v>0</v>
-      </c>
-      <c r="LI4">
-        <v>0</v>
-      </c>
-      <c r="LJ4">
-        <v>0</v>
-      </c>
-      <c r="LK4">
-        <v>0</v>
-      </c>
-      <c r="LL4">
-        <v>0</v>
-      </c>
-      <c r="LM4">
-        <v>0</v>
-      </c>
-      <c r="LN4">
-        <v>0</v>
-      </c>
-      <c r="LO4">
-        <v>0</v>
-      </c>
-      <c r="LP4">
-        <v>0</v>
-      </c>
-      <c r="LQ4">
-        <v>0</v>
-      </c>
-      <c r="LR4">
-        <v>0</v>
-      </c>
-      <c r="LS4">
-        <v>0</v>
-      </c>
-      <c r="LT4">
-        <v>0</v>
-      </c>
-      <c r="LU4">
-        <v>0</v>
-      </c>
-      <c r="LV4">
-        <v>0</v>
-      </c>
-      <c r="LW4">
-        <v>0</v>
-      </c>
-      <c r="LX4">
-        <v>0</v>
-      </c>
-      <c r="LY4">
-        <v>0</v>
-      </c>
-      <c r="LZ4">
-        <v>0</v>
-      </c>
-      <c r="MA4">
-        <v>0</v>
-      </c>
-      <c r="MB4">
-        <v>0</v>
-      </c>
-      <c r="MC4">
-        <v>0</v>
-      </c>
-      <c r="MD4">
-        <v>0</v>
-      </c>
-      <c r="ME4">
-        <v>0</v>
-      </c>
-      <c r="MF4">
-        <v>0</v>
-      </c>
       <c r="MG4">
         <v>0</v>
       </c>
@@ -13703,17 +13742,17 @@
       <c r="MP4">
         <v>0</v>
       </c>
-      <c r="MQ4">
-        <v>0</v>
-      </c>
-      <c r="MR4">
-        <v>0</v>
-      </c>
-      <c r="MS4">
-        <v>0</v>
-      </c>
-      <c r="MT4">
-        <v>0</v>
+      <c r="MQ4" s="12">
+        <v>87</v>
+      </c>
+      <c r="MR4" s="12">
+        <v>88</v>
+      </c>
+      <c r="MS4" s="12">
+        <v>89</v>
+      </c>
+      <c r="MT4" s="12">
+        <v>90</v>
       </c>
       <c r="MU4">
         <v>0</v>
@@ -14552,238 +14591,238 @@
         <v>0</v>
       </c>
       <c r="IC5" s="6">
+        <v>94</v>
+      </c>
+      <c r="ID5" s="6">
+        <v>95</v>
+      </c>
+      <c r="IE5">
+        <v>0</v>
+      </c>
+      <c r="IF5">
+        <v>0</v>
+      </c>
+      <c r="IG5">
+        <v>0</v>
+      </c>
+      <c r="IH5">
+        <v>0</v>
+      </c>
+      <c r="II5">
+        <v>0</v>
+      </c>
+      <c r="IJ5">
+        <v>0</v>
+      </c>
+      <c r="IK5">
+        <v>0</v>
+      </c>
+      <c r="IL5">
+        <v>0</v>
+      </c>
+      <c r="IM5">
+        <v>0</v>
+      </c>
+      <c r="IN5">
+        <v>0</v>
+      </c>
+      <c r="IO5">
+        <v>0</v>
+      </c>
+      <c r="IP5">
+        <v>0</v>
+      </c>
+      <c r="IQ5">
+        <v>0</v>
+      </c>
+      <c r="IR5">
+        <v>0</v>
+      </c>
+      <c r="IS5">
+        <v>0</v>
+      </c>
+      <c r="IT5">
+        <v>0</v>
+      </c>
+      <c r="IU5">
+        <v>0</v>
+      </c>
+      <c r="IV5">
+        <v>0</v>
+      </c>
+      <c r="IW5">
+        <v>0</v>
+      </c>
+      <c r="IX5">
+        <v>0</v>
+      </c>
+      <c r="IY5">
+        <v>0</v>
+      </c>
+      <c r="IZ5">
+        <v>0</v>
+      </c>
+      <c r="JA5">
+        <v>0</v>
+      </c>
+      <c r="JB5">
+        <v>0</v>
+      </c>
+      <c r="JC5">
+        <v>0</v>
+      </c>
+      <c r="JD5">
+        <v>0</v>
+      </c>
+      <c r="JE5">
+        <v>0</v>
+      </c>
+      <c r="JF5">
+        <v>0</v>
+      </c>
+      <c r="JG5">
+        <v>0</v>
+      </c>
+      <c r="JH5">
+        <v>0</v>
+      </c>
+      <c r="JI5">
+        <v>0</v>
+      </c>
+      <c r="JJ5">
+        <v>0</v>
+      </c>
+      <c r="JK5">
+        <v>0</v>
+      </c>
+      <c r="JL5">
+        <v>0</v>
+      </c>
+      <c r="JM5">
+        <v>0</v>
+      </c>
+      <c r="JN5">
+        <v>0</v>
+      </c>
+      <c r="JO5">
+        <v>0</v>
+      </c>
+      <c r="JP5">
+        <v>0</v>
+      </c>
+      <c r="JQ5">
+        <v>0</v>
+      </c>
+      <c r="JR5">
+        <v>0</v>
+      </c>
+      <c r="JS5">
+        <v>0</v>
+      </c>
+      <c r="JT5">
+        <v>0</v>
+      </c>
+      <c r="JU5">
+        <v>0</v>
+      </c>
+      <c r="JV5">
+        <v>0</v>
+      </c>
+      <c r="JW5">
+        <v>0</v>
+      </c>
+      <c r="JX5">
+        <v>0</v>
+      </c>
+      <c r="JY5">
+        <v>0</v>
+      </c>
+      <c r="JZ5">
+        <v>0</v>
+      </c>
+      <c r="KA5">
+        <v>0</v>
+      </c>
+      <c r="KB5">
+        <v>0</v>
+      </c>
+      <c r="KC5">
+        <v>0</v>
+      </c>
+      <c r="KD5">
+        <v>0</v>
+      </c>
+      <c r="KE5">
+        <v>0</v>
+      </c>
+      <c r="KF5">
+        <v>0</v>
+      </c>
+      <c r="KG5">
+        <v>0</v>
+      </c>
+      <c r="KH5">
+        <v>0</v>
+      </c>
+      <c r="KI5">
+        <v>0</v>
+      </c>
+      <c r="KJ5">
+        <v>0</v>
+      </c>
+      <c r="KK5">
+        <v>0</v>
+      </c>
+      <c r="KL5">
+        <v>0</v>
+      </c>
+      <c r="KM5">
+        <v>0</v>
+      </c>
+      <c r="KN5">
+        <v>0</v>
+      </c>
+      <c r="KO5">
+        <v>0</v>
+      </c>
+      <c r="KP5">
+        <v>0</v>
+      </c>
+      <c r="KQ5">
+        <v>0</v>
+      </c>
+      <c r="KR5">
+        <v>0</v>
+      </c>
+      <c r="KS5">
+        <v>0</v>
+      </c>
+      <c r="KT5">
+        <v>0</v>
+      </c>
+      <c r="KU5">
+        <v>0</v>
+      </c>
+      <c r="KV5">
+        <v>0</v>
+      </c>
+      <c r="KW5">
+        <v>0</v>
+      </c>
+      <c r="KX5">
+        <v>0</v>
+      </c>
+      <c r="KY5" s="12">
+        <v>87</v>
+      </c>
+      <c r="KZ5" s="12">
+        <v>88</v>
+      </c>
+      <c r="LA5" s="12">
+        <v>89</v>
+      </c>
+      <c r="LB5" s="12">
         <v>90</v>
-      </c>
-      <c r="ID5" s="6">
-        <v>91</v>
-      </c>
-      <c r="IE5">
-        <v>0</v>
-      </c>
-      <c r="IF5">
-        <v>0</v>
-      </c>
-      <c r="IG5">
-        <v>0</v>
-      </c>
-      <c r="IH5">
-        <v>0</v>
-      </c>
-      <c r="II5">
-        <v>0</v>
-      </c>
-      <c r="IJ5">
-        <v>0</v>
-      </c>
-      <c r="IK5">
-        <v>0</v>
-      </c>
-      <c r="IL5">
-        <v>0</v>
-      </c>
-      <c r="IM5">
-        <v>0</v>
-      </c>
-      <c r="IN5">
-        <v>0</v>
-      </c>
-      <c r="IO5">
-        <v>0</v>
-      </c>
-      <c r="IP5">
-        <v>0</v>
-      </c>
-      <c r="IQ5">
-        <v>0</v>
-      </c>
-      <c r="IR5">
-        <v>0</v>
-      </c>
-      <c r="IS5">
-        <v>0</v>
-      </c>
-      <c r="IT5">
-        <v>0</v>
-      </c>
-      <c r="IU5">
-        <v>0</v>
-      </c>
-      <c r="IV5">
-        <v>0</v>
-      </c>
-      <c r="IW5">
-        <v>0</v>
-      </c>
-      <c r="IX5">
-        <v>0</v>
-      </c>
-      <c r="IY5">
-        <v>0</v>
-      </c>
-      <c r="IZ5">
-        <v>0</v>
-      </c>
-      <c r="JA5">
-        <v>0</v>
-      </c>
-      <c r="JB5">
-        <v>0</v>
-      </c>
-      <c r="JC5">
-        <v>0</v>
-      </c>
-      <c r="JD5">
-        <v>0</v>
-      </c>
-      <c r="JE5">
-        <v>0</v>
-      </c>
-      <c r="JF5">
-        <v>0</v>
-      </c>
-      <c r="JG5">
-        <v>0</v>
-      </c>
-      <c r="JH5">
-        <v>0</v>
-      </c>
-      <c r="JI5">
-        <v>0</v>
-      </c>
-      <c r="JJ5">
-        <v>0</v>
-      </c>
-      <c r="JK5">
-        <v>0</v>
-      </c>
-      <c r="JL5">
-        <v>0</v>
-      </c>
-      <c r="JM5">
-        <v>0</v>
-      </c>
-      <c r="JN5">
-        <v>0</v>
-      </c>
-      <c r="JO5">
-        <v>0</v>
-      </c>
-      <c r="JP5">
-        <v>0</v>
-      </c>
-      <c r="JQ5">
-        <v>0</v>
-      </c>
-      <c r="JR5">
-        <v>0</v>
-      </c>
-      <c r="JS5">
-        <v>0</v>
-      </c>
-      <c r="JT5">
-        <v>0</v>
-      </c>
-      <c r="JU5">
-        <v>0</v>
-      </c>
-      <c r="JV5">
-        <v>0</v>
-      </c>
-      <c r="JW5">
-        <v>0</v>
-      </c>
-      <c r="JX5">
-        <v>0</v>
-      </c>
-      <c r="JY5">
-        <v>0</v>
-      </c>
-      <c r="JZ5">
-        <v>0</v>
-      </c>
-      <c r="KA5">
-        <v>0</v>
-      </c>
-      <c r="KB5">
-        <v>0</v>
-      </c>
-      <c r="KC5">
-        <v>0</v>
-      </c>
-      <c r="KD5">
-        <v>0</v>
-      </c>
-      <c r="KE5">
-        <v>0</v>
-      </c>
-      <c r="KF5">
-        <v>0</v>
-      </c>
-      <c r="KG5">
-        <v>0</v>
-      </c>
-      <c r="KH5">
-        <v>0</v>
-      </c>
-      <c r="KI5">
-        <v>0</v>
-      </c>
-      <c r="KJ5">
-        <v>0</v>
-      </c>
-      <c r="KK5">
-        <v>0</v>
-      </c>
-      <c r="KL5">
-        <v>0</v>
-      </c>
-      <c r="KM5">
-        <v>0</v>
-      </c>
-      <c r="KN5">
-        <v>0</v>
-      </c>
-      <c r="KO5">
-        <v>0</v>
-      </c>
-      <c r="KP5">
-        <v>0</v>
-      </c>
-      <c r="KQ5">
-        <v>0</v>
-      </c>
-      <c r="KR5">
-        <v>0</v>
-      </c>
-      <c r="KS5">
-        <v>0</v>
-      </c>
-      <c r="KT5">
-        <v>0</v>
-      </c>
-      <c r="KU5">
-        <v>0</v>
-      </c>
-      <c r="KV5">
-        <v>0</v>
-      </c>
-      <c r="KW5">
-        <v>0</v>
-      </c>
-      <c r="KX5">
-        <v>0</v>
-      </c>
-      <c r="KY5">
-        <v>0</v>
-      </c>
-      <c r="KZ5">
-        <v>0</v>
-      </c>
-      <c r="LA5">
-        <v>0</v>
-      </c>
-      <c r="LB5">
-        <v>0</v>
       </c>
       <c r="LC5">
         <v>0</v>
@@ -15754,10 +15793,10 @@
         <v>0</v>
       </c>
       <c r="IC6" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="ID6" s="6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="IE6">
         <v>0</v>
@@ -16956,10 +16995,10 @@
         <v>0</v>
       </c>
       <c r="IC7" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="ID7" s="6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="IE7">
         <v>0</v>
@@ -17162,11 +17201,11 @@
       <c r="KS7">
         <v>0</v>
       </c>
-      <c r="KT7">
-        <v>0</v>
-      </c>
-      <c r="KU7">
-        <v>0</v>
+      <c r="KT7" s="2">
+        <v>21</v>
+      </c>
+      <c r="KU7" s="2">
+        <v>22</v>
       </c>
       <c r="KV7">
         <v>0</v>
@@ -17213,11 +17252,11 @@
       <c r="LJ7">
         <v>0</v>
       </c>
-      <c r="LK7">
-        <v>0</v>
-      </c>
-      <c r="LL7">
-        <v>0</v>
+      <c r="LK7" s="11">
+        <v>202</v>
+      </c>
+      <c r="LL7" s="11">
+        <v>203</v>
       </c>
       <c r="LM7">
         <v>0</v>
@@ -18158,10 +18197,10 @@
         <v>0</v>
       </c>
       <c r="IC8" s="6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="ID8" s="6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="IE8">
         <v>0</v>
@@ -18364,11 +18403,11 @@
       <c r="KS8">
         <v>0</v>
       </c>
-      <c r="KT8">
-        <v>0</v>
-      </c>
-      <c r="KU8">
-        <v>0</v>
+      <c r="KT8" s="2">
+        <v>23</v>
+      </c>
+      <c r="KU8" s="2">
+        <v>24</v>
       </c>
       <c r="KV8">
         <v>0</v>
@@ -18415,11 +18454,11 @@
       <c r="LJ8">
         <v>0</v>
       </c>
-      <c r="LK8">
-        <v>0</v>
-      </c>
-      <c r="LL8">
-        <v>0</v>
+      <c r="LK8" s="2">
+        <v>21</v>
+      </c>
+      <c r="LL8" s="2">
+        <v>22</v>
       </c>
       <c r="LM8">
         <v>0</v>
@@ -18448,17 +18487,17 @@
       <c r="LU8">
         <v>0</v>
       </c>
-      <c r="LV8">
-        <v>0</v>
-      </c>
-      <c r="LW8">
-        <v>0</v>
-      </c>
-      <c r="LX8">
-        <v>0</v>
-      </c>
-      <c r="LY8">
-        <v>0</v>
+      <c r="LV8" s="2">
+        <v>21</v>
+      </c>
+      <c r="LW8" s="2">
+        <v>22</v>
+      </c>
+      <c r="LX8" s="2">
+        <v>21</v>
+      </c>
+      <c r="LY8" s="2">
+        <v>22</v>
       </c>
       <c r="LZ8">
         <v>0</v>
@@ -18502,11 +18541,11 @@
       <c r="MM8">
         <v>0</v>
       </c>
-      <c r="MN8">
-        <v>0</v>
-      </c>
-      <c r="MO8">
-        <v>0</v>
+      <c r="MN8" s="2">
+        <v>21</v>
+      </c>
+      <c r="MO8" s="2">
+        <v>22</v>
       </c>
       <c r="MP8">
         <v>0</v>
@@ -19566,11 +19605,11 @@
       <c r="KS9">
         <v>0</v>
       </c>
-      <c r="KT9">
-        <v>0</v>
-      </c>
-      <c r="KU9">
-        <v>0</v>
+      <c r="KT9" s="2">
+        <v>25</v>
+      </c>
+      <c r="KU9" s="2">
+        <v>26</v>
       </c>
       <c r="KV9">
         <v>0</v>
@@ -19617,11 +19656,11 @@
       <c r="LJ9">
         <v>0</v>
       </c>
-      <c r="LK9">
-        <v>0</v>
-      </c>
-      <c r="LL9">
-        <v>0</v>
+      <c r="LK9" s="2">
+        <v>23</v>
+      </c>
+      <c r="LL9" s="2">
+        <v>24</v>
       </c>
       <c r="LM9">
         <v>0</v>
@@ -19650,17 +19689,17 @@
       <c r="LU9">
         <v>0</v>
       </c>
-      <c r="LV9">
-        <v>0</v>
-      </c>
-      <c r="LW9">
-        <v>0</v>
-      </c>
-      <c r="LX9">
-        <v>0</v>
-      </c>
-      <c r="LY9">
-        <v>0</v>
+      <c r="LV9" s="2">
+        <v>23</v>
+      </c>
+      <c r="LW9" s="2">
+        <v>24</v>
+      </c>
+      <c r="LX9" s="2">
+        <v>23</v>
+      </c>
+      <c r="LY9" s="2">
+        <v>24</v>
       </c>
       <c r="LZ9">
         <v>0</v>
@@ -19704,11 +19743,11 @@
       <c r="MM9">
         <v>0</v>
       </c>
-      <c r="MN9">
-        <v>0</v>
-      </c>
-      <c r="MO9">
-        <v>0</v>
+      <c r="MN9" s="2">
+        <v>23</v>
+      </c>
+      <c r="MO9" s="2">
+        <v>24</v>
       </c>
       <c r="MP9">
         <v>0</v>
@@ -20768,11 +20807,11 @@
       <c r="KS10">
         <v>0</v>
       </c>
-      <c r="KT10">
-        <v>0</v>
-      </c>
-      <c r="KU10">
-        <v>0</v>
+      <c r="KT10" s="2">
+        <v>27</v>
+      </c>
+      <c r="KU10" s="2">
+        <v>28</v>
       </c>
       <c r="KV10">
         <v>0</v>
@@ -20783,17 +20822,17 @@
       <c r="KX10">
         <v>0</v>
       </c>
-      <c r="KY10">
-        <v>0</v>
-      </c>
-      <c r="KZ10">
-        <v>0</v>
-      </c>
-      <c r="LA10">
-        <v>0</v>
-      </c>
-      <c r="LB10">
-        <v>0</v>
+      <c r="KY10" s="2">
+        <v>21</v>
+      </c>
+      <c r="KZ10" s="2">
+        <v>22</v>
+      </c>
+      <c r="LA10" s="2">
+        <v>21</v>
+      </c>
+      <c r="LB10" s="2">
+        <v>22</v>
       </c>
       <c r="LC10">
         <v>0</v>
@@ -20819,11 +20858,11 @@
       <c r="LJ10">
         <v>0</v>
       </c>
-      <c r="LK10">
-        <v>0</v>
-      </c>
-      <c r="LL10">
-        <v>0</v>
+      <c r="LK10" s="2">
+        <v>25</v>
+      </c>
+      <c r="LL10" s="2">
+        <v>26</v>
       </c>
       <c r="LM10">
         <v>0</v>
@@ -20852,17 +20891,17 @@
       <c r="LU10">
         <v>0</v>
       </c>
-      <c r="LV10">
-        <v>0</v>
-      </c>
-      <c r="LW10">
-        <v>0</v>
-      </c>
-      <c r="LX10">
-        <v>0</v>
-      </c>
-      <c r="LY10">
-        <v>0</v>
+      <c r="LV10" s="2">
+        <v>25</v>
+      </c>
+      <c r="LW10" s="2">
+        <v>26</v>
+      </c>
+      <c r="LX10" s="2">
+        <v>25</v>
+      </c>
+      <c r="LY10" s="2">
+        <v>26</v>
       </c>
       <c r="LZ10">
         <v>0</v>
@@ -20906,11 +20945,11 @@
       <c r="MM10">
         <v>0</v>
       </c>
-      <c r="MN10">
-        <v>0</v>
-      </c>
-      <c r="MO10">
-        <v>0</v>
+      <c r="MN10" s="2">
+        <v>25</v>
+      </c>
+      <c r="MO10" s="2">
+        <v>26</v>
       </c>
       <c r="MP10">
         <v>0</v>
@@ -20927,11 +20966,11 @@
       <c r="MT10">
         <v>0</v>
       </c>
-      <c r="MU10">
-        <v>0</v>
-      </c>
-      <c r="MV10">
-        <v>0</v>
+      <c r="MU10" s="11">
+        <v>200</v>
+      </c>
+      <c r="MV10" s="11">
+        <v>201</v>
       </c>
       <c r="MW10">
         <v>0</v>
@@ -21970,11 +22009,11 @@
       <c r="KS11">
         <v>0</v>
       </c>
-      <c r="KT11">
-        <v>0</v>
-      </c>
-      <c r="KU11">
-        <v>0</v>
+      <c r="KT11" s="2">
+        <v>25</v>
+      </c>
+      <c r="KU11" s="2">
+        <v>26</v>
       </c>
       <c r="KV11">
         <v>0</v>
@@ -21985,17 +22024,17 @@
       <c r="KX11">
         <v>0</v>
       </c>
-      <c r="KY11">
-        <v>0</v>
-      </c>
-      <c r="KZ11">
-        <v>0</v>
-      </c>
-      <c r="LA11">
-        <v>0</v>
-      </c>
-      <c r="LB11">
-        <v>0</v>
+      <c r="KY11" s="2">
+        <v>23</v>
+      </c>
+      <c r="KZ11" s="2">
+        <v>24</v>
+      </c>
+      <c r="LA11" s="2">
+        <v>23</v>
+      </c>
+      <c r="LB11" s="2">
+        <v>24</v>
       </c>
       <c r="LC11">
         <v>0</v>
@@ -22021,11 +22060,11 @@
       <c r="LJ11">
         <v>0</v>
       </c>
-      <c r="LK11">
-        <v>0</v>
-      </c>
-      <c r="LL11">
-        <v>0</v>
+      <c r="LK11" s="2">
+        <v>27</v>
+      </c>
+      <c r="LL11" s="2">
+        <v>28</v>
       </c>
       <c r="LM11">
         <v>0</v>
@@ -22054,17 +22093,17 @@
       <c r="LU11">
         <v>0</v>
       </c>
-      <c r="LV11">
-        <v>0</v>
-      </c>
-      <c r="LW11">
-        <v>0</v>
-      </c>
-      <c r="LX11">
-        <v>0</v>
-      </c>
-      <c r="LY11">
-        <v>0</v>
+      <c r="LV11" s="2">
+        <v>27</v>
+      </c>
+      <c r="LW11" s="2">
+        <v>28</v>
+      </c>
+      <c r="LX11" s="2">
+        <v>27</v>
+      </c>
+      <c r="LY11" s="2">
+        <v>28</v>
       </c>
       <c r="LZ11">
         <v>0</v>
@@ -22078,17 +22117,17 @@
       <c r="MC11">
         <v>0</v>
       </c>
-      <c r="MD11">
-        <v>0</v>
-      </c>
-      <c r="ME11">
-        <v>0</v>
-      </c>
-      <c r="MF11">
-        <v>0</v>
-      </c>
-      <c r="MG11">
-        <v>0</v>
+      <c r="MD11" s="2">
+        <v>21</v>
+      </c>
+      <c r="ME11" s="2">
+        <v>22</v>
+      </c>
+      <c r="MF11" s="2">
+        <v>21</v>
+      </c>
+      <c r="MG11" s="2">
+        <v>22</v>
       </c>
       <c r="MH11">
         <v>0</v>
@@ -22108,11 +22147,11 @@
       <c r="MM11">
         <v>0</v>
       </c>
-      <c r="MN11">
-        <v>0</v>
-      </c>
-      <c r="MO11">
-        <v>0</v>
+      <c r="MN11" s="2">
+        <v>27</v>
+      </c>
+      <c r="MO11" s="2">
+        <v>28</v>
       </c>
       <c r="MP11">
         <v>0</v>
@@ -22129,11 +22168,11 @@
       <c r="MT11">
         <v>0</v>
       </c>
-      <c r="MU11">
-        <v>0</v>
-      </c>
-      <c r="MV11">
-        <v>0</v>
+      <c r="MU11" s="2">
+        <v>21</v>
+      </c>
+      <c r="MV11" s="2">
+        <v>22</v>
       </c>
       <c r="MW11">
         <v>0</v>
@@ -23172,11 +23211,11 @@
       <c r="KS12">
         <v>0</v>
       </c>
-      <c r="KT12">
-        <v>0</v>
-      </c>
-      <c r="KU12">
-        <v>0</v>
+      <c r="KT12" s="2">
+        <v>27</v>
+      </c>
+      <c r="KU12" s="2">
+        <v>28</v>
       </c>
       <c r="KV12">
         <v>0</v>
@@ -23187,17 +23226,17 @@
       <c r="KX12">
         <v>0</v>
       </c>
-      <c r="KY12">
-        <v>0</v>
-      </c>
-      <c r="KZ12">
-        <v>0</v>
-      </c>
-      <c r="LA12">
-        <v>0</v>
-      </c>
-      <c r="LB12">
-        <v>0</v>
+      <c r="KY12" s="2">
+        <v>25</v>
+      </c>
+      <c r="KZ12" s="2">
+        <v>26</v>
+      </c>
+      <c r="LA12" s="2">
+        <v>25</v>
+      </c>
+      <c r="LB12" s="2">
+        <v>26</v>
       </c>
       <c r="LC12">
         <v>0</v>
@@ -23223,11 +23262,11 @@
       <c r="LJ12">
         <v>0</v>
       </c>
-      <c r="LK12">
-        <v>0</v>
-      </c>
-      <c r="LL12">
-        <v>0</v>
+      <c r="LK12" s="2">
+        <v>25</v>
+      </c>
+      <c r="LL12" s="2">
+        <v>26</v>
       </c>
       <c r="LM12">
         <v>0</v>
@@ -23256,17 +23295,17 @@
       <c r="LU12">
         <v>0</v>
       </c>
-      <c r="LV12">
-        <v>0</v>
-      </c>
-      <c r="LW12">
-        <v>0</v>
-      </c>
-      <c r="LX12">
-        <v>0</v>
-      </c>
-      <c r="LY12">
-        <v>0</v>
+      <c r="LV12" s="2">
+        <v>25</v>
+      </c>
+      <c r="LW12" s="2">
+        <v>26</v>
+      </c>
+      <c r="LX12" s="2">
+        <v>25</v>
+      </c>
+      <c r="LY12" s="2">
+        <v>26</v>
       </c>
       <c r="LZ12">
         <v>0</v>
@@ -23280,17 +23319,17 @@
       <c r="MC12">
         <v>0</v>
       </c>
-      <c r="MD12">
-        <v>0</v>
-      </c>
-      <c r="ME12">
-        <v>0</v>
-      </c>
-      <c r="MF12">
-        <v>0</v>
-      </c>
-      <c r="MG12">
-        <v>0</v>
+      <c r="MD12" s="2">
+        <v>23</v>
+      </c>
+      <c r="ME12" s="2">
+        <v>24</v>
+      </c>
+      <c r="MF12" s="2">
+        <v>23</v>
+      </c>
+      <c r="MG12" s="2">
+        <v>24</v>
       </c>
       <c r="MH12">
         <v>0</v>
@@ -23310,11 +23349,11 @@
       <c r="MM12">
         <v>0</v>
       </c>
-      <c r="MN12">
-        <v>0</v>
-      </c>
-      <c r="MO12">
-        <v>0</v>
+      <c r="MN12" s="2">
+        <v>25</v>
+      </c>
+      <c r="MO12" s="2">
+        <v>26</v>
       </c>
       <c r="MP12">
         <v>0</v>
@@ -23331,11 +23370,11 @@
       <c r="MT12">
         <v>0</v>
       </c>
-      <c r="MU12">
-        <v>0</v>
-      </c>
-      <c r="MV12">
-        <v>0</v>
+      <c r="MU12" s="2">
+        <v>23</v>
+      </c>
+      <c r="MV12" s="2">
+        <v>24</v>
       </c>
       <c r="MW12">
         <v>0</v>
@@ -24374,11 +24413,11 @@
       <c r="KS13">
         <v>0</v>
       </c>
-      <c r="KT13">
-        <v>0</v>
-      </c>
-      <c r="KU13">
-        <v>0</v>
+      <c r="KT13" s="2">
+        <v>25</v>
+      </c>
+      <c r="KU13" s="2">
+        <v>26</v>
       </c>
       <c r="KV13">
         <v>0</v>
@@ -24389,17 +24428,17 @@
       <c r="KX13">
         <v>0</v>
       </c>
-      <c r="KY13">
-        <v>0</v>
-      </c>
-      <c r="KZ13">
-        <v>0</v>
-      </c>
-      <c r="LA13">
-        <v>0</v>
-      </c>
-      <c r="LB13">
-        <v>0</v>
+      <c r="KY13" s="2">
+        <v>27</v>
+      </c>
+      <c r="KZ13" s="2">
+        <v>28</v>
+      </c>
+      <c r="LA13" s="2">
+        <v>27</v>
+      </c>
+      <c r="LB13" s="2">
+        <v>28</v>
       </c>
       <c r="LC13">
         <v>0</v>
@@ -24425,11 +24464,11 @@
       <c r="LJ13">
         <v>0</v>
       </c>
-      <c r="LK13">
-        <v>0</v>
-      </c>
-      <c r="LL13">
-        <v>0</v>
+      <c r="LK13" s="2">
+        <v>25</v>
+      </c>
+      <c r="LL13" s="2">
+        <v>26</v>
       </c>
       <c r="LM13">
         <v>0</v>
@@ -24458,17 +24497,17 @@
       <c r="LU13">
         <v>0</v>
       </c>
-      <c r="LV13">
-        <v>0</v>
-      </c>
-      <c r="LW13">
-        <v>0</v>
-      </c>
-      <c r="LX13">
-        <v>0</v>
-      </c>
-      <c r="LY13">
-        <v>0</v>
+      <c r="LV13" s="2">
+        <v>25</v>
+      </c>
+      <c r="LW13" s="2">
+        <v>26</v>
+      </c>
+      <c r="LX13" s="2">
+        <v>25</v>
+      </c>
+      <c r="LY13" s="2">
+        <v>26</v>
       </c>
       <c r="LZ13">
         <v>0</v>
@@ -24482,17 +24521,17 @@
       <c r="MC13">
         <v>0</v>
       </c>
-      <c r="MD13">
-        <v>0</v>
-      </c>
-      <c r="ME13">
-        <v>0</v>
-      </c>
-      <c r="MF13">
-        <v>0</v>
-      </c>
-      <c r="MG13">
-        <v>0</v>
+      <c r="MD13" s="2">
+        <v>25</v>
+      </c>
+      <c r="ME13" s="2">
+        <v>26</v>
+      </c>
+      <c r="MF13" s="2">
+        <v>25</v>
+      </c>
+      <c r="MG13" s="2">
+        <v>26</v>
       </c>
       <c r="MH13">
         <v>0</v>
@@ -24512,11 +24551,11 @@
       <c r="MM13">
         <v>0</v>
       </c>
-      <c r="MN13">
-        <v>0</v>
-      </c>
-      <c r="MO13">
-        <v>0</v>
+      <c r="MN13" s="2">
+        <v>25</v>
+      </c>
+      <c r="MO13" s="2">
+        <v>26</v>
       </c>
       <c r="MP13">
         <v>0</v>
@@ -24533,11 +24572,11 @@
       <c r="MT13">
         <v>0</v>
       </c>
-      <c r="MU13">
-        <v>0</v>
-      </c>
-      <c r="MV13">
-        <v>0</v>
+      <c r="MU13" s="2">
+        <v>25</v>
+      </c>
+      <c r="MV13" s="2">
+        <v>26</v>
       </c>
       <c r="MW13">
         <v>0</v>
@@ -25576,11 +25615,11 @@
       <c r="KS14">
         <v>0</v>
       </c>
-      <c r="KT14">
-        <v>0</v>
-      </c>
-      <c r="KU14">
-        <v>0</v>
+      <c r="KT14" s="2">
+        <v>27</v>
+      </c>
+      <c r="KU14" s="2">
+        <v>28</v>
       </c>
       <c r="KV14">
         <v>0</v>
@@ -25591,17 +25630,17 @@
       <c r="KX14">
         <v>0</v>
       </c>
-      <c r="KY14">
-        <v>0</v>
-      </c>
-      <c r="KZ14">
-        <v>0</v>
-      </c>
-      <c r="LA14">
-        <v>0</v>
-      </c>
-      <c r="LB14">
-        <v>0</v>
+      <c r="KY14" s="2">
+        <v>25</v>
+      </c>
+      <c r="KZ14" s="2">
+        <v>26</v>
+      </c>
+      <c r="LA14" s="2">
+        <v>25</v>
+      </c>
+      <c r="LB14" s="2">
+        <v>26</v>
       </c>
       <c r="LC14">
         <v>0</v>
@@ -25627,11 +25666,11 @@
       <c r="LJ14">
         <v>0</v>
       </c>
-      <c r="LK14">
-        <v>0</v>
-      </c>
-      <c r="LL14">
-        <v>0</v>
+      <c r="LK14" s="2">
+        <v>27</v>
+      </c>
+      <c r="LL14" s="2">
+        <v>28</v>
       </c>
       <c r="LM14">
         <v>0</v>
@@ -25660,17 +25699,17 @@
       <c r="LU14">
         <v>0</v>
       </c>
-      <c r="LV14">
-        <v>0</v>
-      </c>
-      <c r="LW14">
-        <v>0</v>
-      </c>
-      <c r="LX14">
-        <v>0</v>
-      </c>
-      <c r="LY14">
-        <v>0</v>
+      <c r="LV14" s="2">
+        <v>27</v>
+      </c>
+      <c r="LW14" s="2">
+        <v>28</v>
+      </c>
+      <c r="LX14" s="2">
+        <v>27</v>
+      </c>
+      <c r="LY14" s="2">
+        <v>28</v>
       </c>
       <c r="LZ14">
         <v>0</v>
@@ -25684,17 +25723,17 @@
       <c r="MC14">
         <v>0</v>
       </c>
-      <c r="MD14">
-        <v>0</v>
-      </c>
-      <c r="ME14">
-        <v>0</v>
-      </c>
-      <c r="MF14">
-        <v>0</v>
-      </c>
-      <c r="MG14">
-        <v>0</v>
+      <c r="MD14" s="2">
+        <v>27</v>
+      </c>
+      <c r="ME14" s="2">
+        <v>28</v>
+      </c>
+      <c r="MF14" s="2">
+        <v>27</v>
+      </c>
+      <c r="MG14" s="2">
+        <v>28</v>
       </c>
       <c r="MH14">
         <v>0</v>
@@ -25714,11 +25753,11 @@
       <c r="MM14">
         <v>0</v>
       </c>
-      <c r="MN14">
-        <v>0</v>
-      </c>
-      <c r="MO14">
-        <v>0</v>
+      <c r="MN14" s="2">
+        <v>27</v>
+      </c>
+      <c r="MO14" s="2">
+        <v>28</v>
       </c>
       <c r="MP14">
         <v>0</v>
@@ -25735,11 +25774,11 @@
       <c r="MT14">
         <v>0</v>
       </c>
-      <c r="MU14">
-        <v>0</v>
-      </c>
-      <c r="MV14">
-        <v>0</v>
+      <c r="MU14" s="2">
+        <v>27</v>
+      </c>
+      <c r="MV14" s="2">
+        <v>28</v>
       </c>
       <c r="MW14">
         <v>0</v>
@@ -26544,11 +26583,11 @@
       <c r="HS15" s="7">
         <v>68</v>
       </c>
-      <c r="HT15" s="7">
-        <v>67</v>
-      </c>
-      <c r="HU15" s="7">
-        <v>68</v>
+      <c r="HT15">
+        <v>0</v>
+      </c>
+      <c r="HU15">
+        <v>0</v>
       </c>
       <c r="HV15">
         <v>0</v>
@@ -26715,11 +26754,11 @@
       <c r="JX15">
         <v>0</v>
       </c>
-      <c r="JY15">
-        <v>0</v>
-      </c>
-      <c r="JZ15">
-        <v>0</v>
+      <c r="JY15" s="7">
+        <v>67</v>
+      </c>
+      <c r="JZ15" s="7">
+        <v>68</v>
       </c>
       <c r="KA15">
         <v>0</v>
@@ -26727,11 +26766,11 @@
       <c r="KB15">
         <v>0</v>
       </c>
-      <c r="KC15" s="7">
-        <v>67</v>
-      </c>
-      <c r="KD15" s="7">
-        <v>68</v>
+      <c r="KC15">
+        <v>0</v>
+      </c>
+      <c r="KD15">
+        <v>0</v>
       </c>
       <c r="KE15">
         <v>0</v>
@@ -26778,191 +26817,191 @@
       <c r="KS15">
         <v>0</v>
       </c>
-      <c r="KT15">
-        <v>0</v>
-      </c>
-      <c r="KU15">
-        <v>0</v>
-      </c>
-      <c r="KV15">
-        <v>0</v>
-      </c>
-      <c r="KW15">
-        <v>0</v>
-      </c>
-      <c r="KX15">
-        <v>0</v>
-      </c>
-      <c r="KY15">
-        <v>0</v>
-      </c>
-      <c r="KZ15">
-        <v>0</v>
-      </c>
-      <c r="LA15">
-        <v>0</v>
-      </c>
-      <c r="LB15">
-        <v>0</v>
-      </c>
-      <c r="LC15">
-        <v>0</v>
-      </c>
-      <c r="LD15">
-        <v>0</v>
-      </c>
-      <c r="LE15">
-        <v>0</v>
-      </c>
-      <c r="LF15">
-        <v>0</v>
-      </c>
-      <c r="LG15">
-        <v>0</v>
-      </c>
-      <c r="LH15">
-        <v>0</v>
-      </c>
-      <c r="LI15">
-        <v>0</v>
-      </c>
-      <c r="LJ15">
-        <v>0</v>
-      </c>
-      <c r="LK15">
-        <v>0</v>
-      </c>
-      <c r="LL15">
-        <v>0</v>
-      </c>
-      <c r="LM15">
-        <v>0</v>
-      </c>
-      <c r="LN15">
-        <v>0</v>
-      </c>
-      <c r="LO15">
-        <v>0</v>
-      </c>
-      <c r="LP15">
-        <v>0</v>
-      </c>
-      <c r="LQ15">
-        <v>0</v>
-      </c>
-      <c r="LR15">
-        <v>0</v>
-      </c>
-      <c r="LS15">
-        <v>0</v>
-      </c>
-      <c r="LT15">
-        <v>0</v>
-      </c>
-      <c r="LU15">
-        <v>0</v>
-      </c>
-      <c r="LV15">
-        <v>0</v>
-      </c>
-      <c r="LW15">
-        <v>0</v>
-      </c>
-      <c r="LX15">
-        <v>0</v>
-      </c>
-      <c r="LY15">
-        <v>0</v>
-      </c>
-      <c r="LZ15">
-        <v>0</v>
-      </c>
-      <c r="MA15">
-        <v>0</v>
-      </c>
-      <c r="MB15">
-        <v>0</v>
-      </c>
-      <c r="MC15">
-        <v>0</v>
-      </c>
-      <c r="MD15">
-        <v>0</v>
-      </c>
-      <c r="ME15">
-        <v>0</v>
-      </c>
-      <c r="MF15">
-        <v>0</v>
-      </c>
-      <c r="MG15">
-        <v>0</v>
-      </c>
-      <c r="MH15">
-        <v>0</v>
-      </c>
-      <c r="MI15">
-        <v>0</v>
-      </c>
-      <c r="MJ15">
-        <v>0</v>
-      </c>
-      <c r="MK15">
-        <v>0</v>
-      </c>
-      <c r="ML15">
-        <v>0</v>
-      </c>
-      <c r="MM15">
-        <v>0</v>
-      </c>
-      <c r="MN15">
-        <v>0</v>
-      </c>
-      <c r="MO15">
-        <v>0</v>
-      </c>
-      <c r="MP15">
-        <v>0</v>
-      </c>
-      <c r="MQ15">
-        <v>0</v>
-      </c>
-      <c r="MR15">
-        <v>0</v>
-      </c>
-      <c r="MS15">
-        <v>0</v>
-      </c>
-      <c r="MT15">
-        <v>0</v>
-      </c>
-      <c r="MU15">
-        <v>0</v>
-      </c>
-      <c r="MV15">
-        <v>0</v>
-      </c>
-      <c r="MW15">
-        <v>0</v>
-      </c>
-      <c r="MX15">
-        <v>0</v>
-      </c>
-      <c r="MY15">
-        <v>0</v>
-      </c>
-      <c r="MZ15">
-        <v>0</v>
-      </c>
-      <c r="NA15">
-        <v>0</v>
-      </c>
-      <c r="NB15">
-        <v>0</v>
-      </c>
-      <c r="NC15">
-        <v>0</v>
+      <c r="KT15" s="2">
+        <v>25</v>
+      </c>
+      <c r="KU15" s="2">
+        <v>26</v>
+      </c>
+      <c r="KV15" s="1">
+        <v>56</v>
+      </c>
+      <c r="KW15" s="1">
+        <v>56</v>
+      </c>
+      <c r="KX15" s="1">
+        <v>57</v>
+      </c>
+      <c r="KY15" s="2">
+        <v>25</v>
+      </c>
+      <c r="KZ15" s="2">
+        <v>26</v>
+      </c>
+      <c r="LA15" s="2">
+        <v>25</v>
+      </c>
+      <c r="LB15" s="2">
+        <v>26</v>
+      </c>
+      <c r="LC15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LD15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LE15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LF15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LG15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LH15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LI15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LJ15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LK15" s="2">
+        <v>25</v>
+      </c>
+      <c r="LL15" s="2">
+        <v>26</v>
+      </c>
+      <c r="LM15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LN15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LO15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LP15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LQ15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LR15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LS15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LT15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LU15" s="1">
+        <v>56</v>
+      </c>
+      <c r="LV15" s="2">
+        <v>25</v>
+      </c>
+      <c r="LW15" s="2">
+        <v>26</v>
+      </c>
+      <c r="LX15" s="2">
+        <v>25</v>
+      </c>
+      <c r="LY15" s="2">
+        <v>26</v>
+      </c>
+      <c r="LZ15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MA15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MB15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MC15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MD15" s="2">
+        <v>25</v>
+      </c>
+      <c r="ME15" s="2">
+        <v>26</v>
+      </c>
+      <c r="MF15" s="2">
+        <v>25</v>
+      </c>
+      <c r="MG15" s="2">
+        <v>26</v>
+      </c>
+      <c r="MH15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MI15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MJ15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MK15" s="1">
+        <v>56</v>
+      </c>
+      <c r="ML15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MM15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MN15" s="2">
+        <v>25</v>
+      </c>
+      <c r="MO15" s="2">
+        <v>26</v>
+      </c>
+      <c r="MP15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MQ15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MR15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MS15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MT15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MU15" s="2">
+        <v>25</v>
+      </c>
+      <c r="MV15" s="2">
+        <v>26</v>
+      </c>
+      <c r="MW15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MX15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MY15" s="1">
+        <v>56</v>
+      </c>
+      <c r="MZ15" s="1">
+        <v>56</v>
+      </c>
+      <c r="NA15" s="1">
+        <v>56</v>
+      </c>
+      <c r="NB15" s="1">
+        <v>56</v>
+      </c>
+      <c r="NC15" s="1">
+        <v>56</v>
       </c>
       <c r="ND15">
         <v>0</v>
@@ -27746,11 +27785,11 @@
       <c r="HS16" s="7">
         <v>70</v>
       </c>
-      <c r="HT16" s="7">
-        <v>69</v>
-      </c>
-      <c r="HU16" s="7">
-        <v>70</v>
+      <c r="HT16">
+        <v>0</v>
+      </c>
+      <c r="HU16">
+        <v>0</v>
       </c>
       <c r="HV16">
         <v>0</v>
@@ -27911,30 +27950,30 @@
       <c r="JV16">
         <v>0</v>
       </c>
-      <c r="JW16">
-        <v>0</v>
-      </c>
-      <c r="JX16">
-        <v>0</v>
-      </c>
-      <c r="JY16">
-        <v>0</v>
-      </c>
-      <c r="JZ16">
-        <v>0</v>
-      </c>
-      <c r="KA16" s="7">
+      <c r="JW16" s="7">
         <v>67</v>
       </c>
-      <c r="KB16" s="7">
+      <c r="JX16" s="7">
         <v>68</v>
       </c>
-      <c r="KC16" s="7">
+      <c r="JY16" s="7">
         <v>69</v>
       </c>
-      <c r="KD16" s="7">
+      <c r="JZ16" s="7">
         <v>70</v>
       </c>
+      <c r="KA16">
+        <v>0</v>
+      </c>
+      <c r="KB16">
+        <v>0</v>
+      </c>
+      <c r="KC16">
+        <v>0</v>
+      </c>
+      <c r="KD16">
+        <v>0</v>
+      </c>
       <c r="KE16">
         <v>0</v>
       </c>
@@ -27959,11 +27998,11 @@
       <c r="KL16">
         <v>0</v>
       </c>
-      <c r="KM16">
-        <v>0</v>
-      </c>
-      <c r="KN16">
-        <v>0</v>
+      <c r="KM16" s="11">
+        <v>200</v>
+      </c>
+      <c r="KN16" s="11">
+        <v>201</v>
       </c>
       <c r="KO16">
         <v>0</v>
@@ -27980,191 +28019,191 @@
       <c r="KS16">
         <v>0</v>
       </c>
-      <c r="KT16">
-        <v>0</v>
-      </c>
-      <c r="KU16">
-        <v>0</v>
-      </c>
-      <c r="KV16">
-        <v>0</v>
-      </c>
-      <c r="KW16">
-        <v>0</v>
-      </c>
-      <c r="KX16">
-        <v>0</v>
-      </c>
-      <c r="KY16">
-        <v>0</v>
-      </c>
-      <c r="KZ16">
-        <v>0</v>
-      </c>
-      <c r="LA16">
-        <v>0</v>
-      </c>
-      <c r="LB16">
-        <v>0</v>
-      </c>
-      <c r="LC16">
-        <v>0</v>
-      </c>
-      <c r="LD16">
-        <v>0</v>
-      </c>
-      <c r="LE16">
-        <v>0</v>
-      </c>
-      <c r="LF16">
-        <v>0</v>
-      </c>
-      <c r="LG16">
-        <v>0</v>
-      </c>
-      <c r="LH16">
-        <v>0</v>
-      </c>
-      <c r="LI16">
-        <v>0</v>
-      </c>
-      <c r="LJ16">
-        <v>0</v>
-      </c>
-      <c r="LK16">
-        <v>0</v>
-      </c>
-      <c r="LL16">
-        <v>0</v>
-      </c>
-      <c r="LM16">
-        <v>0</v>
-      </c>
-      <c r="LN16">
-        <v>0</v>
-      </c>
-      <c r="LO16">
-        <v>0</v>
-      </c>
-      <c r="LP16">
-        <v>0</v>
-      </c>
-      <c r="LQ16">
-        <v>0</v>
-      </c>
-      <c r="LR16">
-        <v>0</v>
-      </c>
-      <c r="LS16">
-        <v>0</v>
-      </c>
-      <c r="LT16">
-        <v>0</v>
-      </c>
-      <c r="LU16">
-        <v>0</v>
-      </c>
-      <c r="LV16">
-        <v>0</v>
-      </c>
-      <c r="LW16">
-        <v>0</v>
-      </c>
-      <c r="LX16">
-        <v>0</v>
-      </c>
-      <c r="LY16">
-        <v>0</v>
-      </c>
-      <c r="LZ16">
-        <v>0</v>
-      </c>
-      <c r="MA16">
-        <v>0</v>
-      </c>
-      <c r="MB16">
-        <v>0</v>
-      </c>
-      <c r="MC16">
-        <v>0</v>
-      </c>
-      <c r="MD16">
-        <v>0</v>
-      </c>
-      <c r="ME16">
-        <v>0</v>
-      </c>
-      <c r="MF16">
-        <v>0</v>
-      </c>
-      <c r="MG16">
-        <v>0</v>
-      </c>
-      <c r="MH16">
-        <v>0</v>
-      </c>
-      <c r="MI16">
-        <v>0</v>
-      </c>
-      <c r="MJ16">
-        <v>0</v>
-      </c>
-      <c r="MK16">
-        <v>0</v>
-      </c>
-      <c r="ML16">
-        <v>0</v>
-      </c>
-      <c r="MM16">
-        <v>0</v>
-      </c>
-      <c r="MN16">
-        <v>0</v>
-      </c>
-      <c r="MO16">
-        <v>0</v>
-      </c>
-      <c r="MP16">
-        <v>0</v>
-      </c>
-      <c r="MQ16">
-        <v>0</v>
-      </c>
-      <c r="MR16">
-        <v>0</v>
-      </c>
-      <c r="MS16">
-        <v>0</v>
-      </c>
-      <c r="MT16">
-        <v>0</v>
-      </c>
-      <c r="MU16">
-        <v>0</v>
-      </c>
-      <c r="MV16">
-        <v>0</v>
-      </c>
-      <c r="MW16">
-        <v>0</v>
-      </c>
-      <c r="MX16">
-        <v>0</v>
-      </c>
-      <c r="MY16">
-        <v>0</v>
-      </c>
-      <c r="MZ16">
-        <v>0</v>
-      </c>
-      <c r="NA16">
-        <v>0</v>
-      </c>
-      <c r="NB16">
-        <v>0</v>
-      </c>
-      <c r="NC16">
-        <v>0</v>
+      <c r="KT16" s="2">
+        <v>27</v>
+      </c>
+      <c r="KU16" s="2">
+        <v>28</v>
+      </c>
+      <c r="KV16" s="1">
+        <v>58</v>
+      </c>
+      <c r="KW16" s="1">
+        <v>58</v>
+      </c>
+      <c r="KX16" s="1">
+        <v>59</v>
+      </c>
+      <c r="KY16" s="2">
+        <v>27</v>
+      </c>
+      <c r="KZ16" s="2">
+        <v>28</v>
+      </c>
+      <c r="LA16" s="2">
+        <v>27</v>
+      </c>
+      <c r="LB16" s="2">
+        <v>28</v>
+      </c>
+      <c r="LC16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LD16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LE16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LF16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LG16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LH16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LI16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LJ16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LK16" s="2">
+        <v>27</v>
+      </c>
+      <c r="LL16" s="2">
+        <v>28</v>
+      </c>
+      <c r="LM16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LN16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LO16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LP16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LQ16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LR16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LS16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LT16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LU16" s="1">
+        <v>58</v>
+      </c>
+      <c r="LV16" s="2">
+        <v>27</v>
+      </c>
+      <c r="LW16" s="2">
+        <v>28</v>
+      </c>
+      <c r="LX16" s="2">
+        <v>27</v>
+      </c>
+      <c r="LY16" s="2">
+        <v>28</v>
+      </c>
+      <c r="LZ16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MA16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MB16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MC16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MD16" s="2">
+        <v>25</v>
+      </c>
+      <c r="ME16" s="2">
+        <v>26</v>
+      </c>
+      <c r="MF16" s="2">
+        <v>25</v>
+      </c>
+      <c r="MG16" s="2">
+        <v>26</v>
+      </c>
+      <c r="MH16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MI16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MJ16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MK16" s="1">
+        <v>58</v>
+      </c>
+      <c r="ML16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MM16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MN16" s="2">
+        <v>27</v>
+      </c>
+      <c r="MO16" s="2">
+        <v>28</v>
+      </c>
+      <c r="MP16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MQ16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MR16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MS16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MT16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MU16" s="2">
+        <v>25</v>
+      </c>
+      <c r="MV16" s="2">
+        <v>26</v>
+      </c>
+      <c r="MW16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MX16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MY16" s="1">
+        <v>58</v>
+      </c>
+      <c r="MZ16" s="1">
+        <v>58</v>
+      </c>
+      <c r="NA16" s="1">
+        <v>58</v>
+      </c>
+      <c r="NB16" s="1">
+        <v>58</v>
+      </c>
+      <c r="NC16" s="1">
+        <v>58</v>
       </c>
       <c r="ND16">
         <v>0</v>

--- a/GameSDL26_2/map_2/Book2.xlsx
+++ b/GameSDL26_2/map_2/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEOMETRYDASH_ver_2\lemon\GameSDL26_2\map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5078F52-77D0-4FA1-9D18-33781D7706CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493EB16B-2467-4FD9-8CD4-CCCAF70E0D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09EF9F5-0415-444F-A6C4-CAEE74711D34}"/>
   </bookViews>
@@ -13214,23 +13214,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_25" connectionId="13" xr16:uid="{9DF8EC1D-53DE-44FB-A45C-CFD363F8ABA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13238,59 +13238,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="10" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_5" connectionId="16" xr16:uid="{FC2D8D11-D05C-43AB-905E-2AD092A0DD59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="15" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_11" connectionId="4" xr16:uid="{08FDAA02-DD3B-430D-A15E-9D155D87B823}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_24" connectionId="12" xr16:uid="{9FBB36A4-77C0-4825-88D4-A1E308C616AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="17" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_25" connectionId="13" xr16:uid="{9DF8EC1D-53DE-44FB-A45C-CFD363F8ABA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_5" connectionId="16" xr16:uid="{FC2D8D11-D05C-43AB-905E-2AD092A0DD59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_24" connectionId="12" xr16:uid="{9FBB36A4-77C0-4825-88D4-A1E308C616AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="10" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="15" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_7" connectionId="18" xr16:uid="{710E395A-4538-4745-9B73-E310BE6760F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_7" connectionId="18" xr16:uid="{710E395A-4538-4745-9B73-E310BE6760F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13590,10 +13590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3286C0E-A788-441C-87F1-658D2013A9EA}">
-  <dimension ref="A1:AOL22"/>
+  <dimension ref="A1:AQJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AGI1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AGS8" sqref="A1:AOL20"/>
+    <sheetView tabSelected="1" topLeftCell="AOT1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AHW22" sqref="AHW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13787,10 +13787,14 @@
     <col min="1039" max="1039" width="6.33203125" customWidth="1"/>
     <col min="1040" max="1077" width="6" customWidth="1"/>
     <col min="1078" max="1078" width="7.5546875" customWidth="1"/>
-    <col min="1079" max="1600" width="3" bestFit="1" customWidth="1"/>
+    <col min="1079" max="1114" width="5.44140625" customWidth="1"/>
+    <col min="1115" max="1126" width="5" customWidth="1"/>
+    <col min="1127" max="1127" width="5.109375" customWidth="1"/>
+    <col min="1128" max="1128" width="5" customWidth="1"/>
+    <col min="1129" max="1600" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -17025,8 +17029,158 @@
       <c r="AOL1">
         <v>403</v>
       </c>
+      <c r="AOM1">
+        <v>402</v>
+      </c>
+      <c r="AON1">
+        <v>403</v>
+      </c>
+      <c r="AOO1">
+        <v>402</v>
+      </c>
+      <c r="AOP1">
+        <v>403</v>
+      </c>
+      <c r="AOQ1">
+        <v>402</v>
+      </c>
+      <c r="AOR1">
+        <v>403</v>
+      </c>
+      <c r="AOS1">
+        <v>402</v>
+      </c>
+      <c r="AOT1">
+        <v>403</v>
+      </c>
+      <c r="AOU1">
+        <v>402</v>
+      </c>
+      <c r="AOV1">
+        <v>403</v>
+      </c>
+      <c r="AOW1">
+        <v>402</v>
+      </c>
+      <c r="AOX1">
+        <v>403</v>
+      </c>
+      <c r="AOY1">
+        <v>402</v>
+      </c>
+      <c r="AOZ1">
+        <v>403</v>
+      </c>
+      <c r="APA1">
+        <v>402</v>
+      </c>
+      <c r="APB1">
+        <v>403</v>
+      </c>
+      <c r="APC1">
+        <v>402</v>
+      </c>
+      <c r="APD1">
+        <v>403</v>
+      </c>
+      <c r="APE1">
+        <v>402</v>
+      </c>
+      <c r="APF1">
+        <v>403</v>
+      </c>
+      <c r="APG1">
+        <v>402</v>
+      </c>
+      <c r="APH1">
+        <v>403</v>
+      </c>
+      <c r="API1">
+        <v>402</v>
+      </c>
+      <c r="APJ1">
+        <v>403</v>
+      </c>
+      <c r="APK1">
+        <v>402</v>
+      </c>
+      <c r="APL1">
+        <v>403</v>
+      </c>
+      <c r="APM1">
+        <v>402</v>
+      </c>
+      <c r="APN1">
+        <v>403</v>
+      </c>
+      <c r="APO1">
+        <v>402</v>
+      </c>
+      <c r="APP1">
+        <v>403</v>
+      </c>
+      <c r="APQ1">
+        <v>402</v>
+      </c>
+      <c r="APR1">
+        <v>403</v>
+      </c>
+      <c r="APS1">
+        <v>402</v>
+      </c>
+      <c r="APT1">
+        <v>403</v>
+      </c>
+      <c r="APU1">
+        <v>402</v>
+      </c>
+      <c r="APV1">
+        <v>403</v>
+      </c>
+      <c r="APW1">
+        <v>402</v>
+      </c>
+      <c r="APX1">
+        <v>403</v>
+      </c>
+      <c r="APY1">
+        <v>402</v>
+      </c>
+      <c r="APZ1">
+        <v>403</v>
+      </c>
+      <c r="AQA1">
+        <v>402</v>
+      </c>
+      <c r="AQB1">
+        <v>403</v>
+      </c>
+      <c r="AQC1">
+        <v>402</v>
+      </c>
+      <c r="AQD1">
+        <v>403</v>
+      </c>
+      <c r="AQE1">
+        <v>402</v>
+      </c>
+      <c r="AQF1">
+        <v>403</v>
+      </c>
+      <c r="AQG1">
+        <v>402</v>
+      </c>
+      <c r="AQH1">
+        <v>403</v>
+      </c>
+      <c r="AQI1">
+        <v>296</v>
+      </c>
+      <c r="AQJ1">
+        <v>297</v>
+      </c>
     </row>
-    <row r="2" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20261,8 +20415,158 @@
       <c r="AOL2">
         <v>405</v>
       </c>
+      <c r="AOM2">
+        <v>404</v>
+      </c>
+      <c r="AON2">
+        <v>405</v>
+      </c>
+      <c r="AOO2">
+        <v>404</v>
+      </c>
+      <c r="AOP2">
+        <v>405</v>
+      </c>
+      <c r="AOQ2">
+        <v>404</v>
+      </c>
+      <c r="AOR2">
+        <v>405</v>
+      </c>
+      <c r="AOS2">
+        <v>404</v>
+      </c>
+      <c r="AOT2">
+        <v>405</v>
+      </c>
+      <c r="AOU2">
+        <v>404</v>
+      </c>
+      <c r="AOV2">
+        <v>405</v>
+      </c>
+      <c r="AOW2">
+        <v>404</v>
+      </c>
+      <c r="AOX2">
+        <v>405</v>
+      </c>
+      <c r="AOY2">
+        <v>404</v>
+      </c>
+      <c r="AOZ2">
+        <v>405</v>
+      </c>
+      <c r="APA2">
+        <v>404</v>
+      </c>
+      <c r="APB2">
+        <v>405</v>
+      </c>
+      <c r="APC2">
+        <v>404</v>
+      </c>
+      <c r="APD2">
+        <v>405</v>
+      </c>
+      <c r="APE2">
+        <v>404</v>
+      </c>
+      <c r="APF2">
+        <v>405</v>
+      </c>
+      <c r="APG2">
+        <v>404</v>
+      </c>
+      <c r="APH2">
+        <v>405</v>
+      </c>
+      <c r="API2">
+        <v>404</v>
+      </c>
+      <c r="APJ2">
+        <v>405</v>
+      </c>
+      <c r="APK2">
+        <v>404</v>
+      </c>
+      <c r="APL2">
+        <v>405</v>
+      </c>
+      <c r="APM2">
+        <v>404</v>
+      </c>
+      <c r="APN2">
+        <v>405</v>
+      </c>
+      <c r="APO2">
+        <v>404</v>
+      </c>
+      <c r="APP2">
+        <v>405</v>
+      </c>
+      <c r="APQ2">
+        <v>404</v>
+      </c>
+      <c r="APR2">
+        <v>405</v>
+      </c>
+      <c r="APS2">
+        <v>404</v>
+      </c>
+      <c r="APT2">
+        <v>405</v>
+      </c>
+      <c r="APU2">
+        <v>404</v>
+      </c>
+      <c r="APV2">
+        <v>405</v>
+      </c>
+      <c r="APW2">
+        <v>404</v>
+      </c>
+      <c r="APX2">
+        <v>405</v>
+      </c>
+      <c r="APY2">
+        <v>404</v>
+      </c>
+      <c r="APZ2">
+        <v>405</v>
+      </c>
+      <c r="AQA2">
+        <v>404</v>
+      </c>
+      <c r="AQB2">
+        <v>405</v>
+      </c>
+      <c r="AQC2">
+        <v>404</v>
+      </c>
+      <c r="AQD2">
+        <v>405</v>
+      </c>
+      <c r="AQE2">
+        <v>404</v>
+      </c>
+      <c r="AQF2">
+        <v>405</v>
+      </c>
+      <c r="AQG2">
+        <v>404</v>
+      </c>
+      <c r="AQH2">
+        <v>405</v>
+      </c>
+      <c r="AQI2">
+        <v>298</v>
+      </c>
+      <c r="AQJ2">
+        <v>299</v>
+      </c>
     </row>
-    <row r="3" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -23497,8 +23801,158 @@
       <c r="AOL3">
         <v>0</v>
       </c>
+      <c r="AOM3">
+        <v>0</v>
+      </c>
+      <c r="AON3">
+        <v>0</v>
+      </c>
+      <c r="AOO3">
+        <v>0</v>
+      </c>
+      <c r="AOP3">
+        <v>0</v>
+      </c>
+      <c r="AOQ3">
+        <v>0</v>
+      </c>
+      <c r="AOR3">
+        <v>0</v>
+      </c>
+      <c r="AOS3">
+        <v>0</v>
+      </c>
+      <c r="AOT3">
+        <v>0</v>
+      </c>
+      <c r="AOU3">
+        <v>0</v>
+      </c>
+      <c r="AOV3">
+        <v>0</v>
+      </c>
+      <c r="AOW3">
+        <v>0</v>
+      </c>
+      <c r="AOX3">
+        <v>0</v>
+      </c>
+      <c r="AOY3">
+        <v>0</v>
+      </c>
+      <c r="AOZ3">
+        <v>0</v>
+      </c>
+      <c r="APA3">
+        <v>0</v>
+      </c>
+      <c r="APB3">
+        <v>0</v>
+      </c>
+      <c r="APC3">
+        <v>0</v>
+      </c>
+      <c r="APD3">
+        <v>0</v>
+      </c>
+      <c r="APE3">
+        <v>0</v>
+      </c>
+      <c r="APF3">
+        <v>0</v>
+      </c>
+      <c r="APG3">
+        <v>0</v>
+      </c>
+      <c r="APH3">
+        <v>0</v>
+      </c>
+      <c r="API3">
+        <v>0</v>
+      </c>
+      <c r="APJ3">
+        <v>0</v>
+      </c>
+      <c r="APK3">
+        <v>0</v>
+      </c>
+      <c r="APL3">
+        <v>0</v>
+      </c>
+      <c r="APM3">
+        <v>0</v>
+      </c>
+      <c r="APN3">
+        <v>0</v>
+      </c>
+      <c r="APO3">
+        <v>0</v>
+      </c>
+      <c r="APP3">
+        <v>0</v>
+      </c>
+      <c r="APQ3">
+        <v>0</v>
+      </c>
+      <c r="APR3">
+        <v>0</v>
+      </c>
+      <c r="APS3">
+        <v>0</v>
+      </c>
+      <c r="APT3">
+        <v>0</v>
+      </c>
+      <c r="APU3">
+        <v>0</v>
+      </c>
+      <c r="APV3">
+        <v>0</v>
+      </c>
+      <c r="APW3">
+        <v>0</v>
+      </c>
+      <c r="APX3">
+        <v>0</v>
+      </c>
+      <c r="APY3">
+        <v>0</v>
+      </c>
+      <c r="APZ3">
+        <v>0</v>
+      </c>
+      <c r="AQA3">
+        <v>0</v>
+      </c>
+      <c r="AQB3">
+        <v>0</v>
+      </c>
+      <c r="AQC3">
+        <v>0</v>
+      </c>
+      <c r="AQD3">
+        <v>0</v>
+      </c>
+      <c r="AQE3">
+        <v>0</v>
+      </c>
+      <c r="AQF3">
+        <v>0</v>
+      </c>
+      <c r="AQG3">
+        <v>0</v>
+      </c>
+      <c r="AQH3">
+        <v>0</v>
+      </c>
+      <c r="AQI3">
+        <v>296</v>
+      </c>
+      <c r="AQJ3">
+        <v>297</v>
+      </c>
     </row>
-    <row r="4" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -26733,8 +27187,158 @@
       <c r="AOL4">
         <v>0</v>
       </c>
+      <c r="AOM4">
+        <v>0</v>
+      </c>
+      <c r="AON4">
+        <v>0</v>
+      </c>
+      <c r="AOO4">
+        <v>0</v>
+      </c>
+      <c r="AOP4">
+        <v>0</v>
+      </c>
+      <c r="AOQ4">
+        <v>0</v>
+      </c>
+      <c r="AOR4">
+        <v>0</v>
+      </c>
+      <c r="AOS4">
+        <v>0</v>
+      </c>
+      <c r="AOT4">
+        <v>0</v>
+      </c>
+      <c r="AOU4">
+        <v>0</v>
+      </c>
+      <c r="AOV4">
+        <v>0</v>
+      </c>
+      <c r="AOW4">
+        <v>0</v>
+      </c>
+      <c r="AOX4">
+        <v>0</v>
+      </c>
+      <c r="AOY4">
+        <v>0</v>
+      </c>
+      <c r="AOZ4">
+        <v>0</v>
+      </c>
+      <c r="APA4">
+        <v>0</v>
+      </c>
+      <c r="APB4">
+        <v>0</v>
+      </c>
+      <c r="APC4">
+        <v>0</v>
+      </c>
+      <c r="APD4">
+        <v>0</v>
+      </c>
+      <c r="APE4">
+        <v>0</v>
+      </c>
+      <c r="APF4">
+        <v>0</v>
+      </c>
+      <c r="APG4">
+        <v>0</v>
+      </c>
+      <c r="APH4">
+        <v>0</v>
+      </c>
+      <c r="API4">
+        <v>0</v>
+      </c>
+      <c r="APJ4">
+        <v>0</v>
+      </c>
+      <c r="APK4">
+        <v>0</v>
+      </c>
+      <c r="APL4">
+        <v>0</v>
+      </c>
+      <c r="APM4">
+        <v>0</v>
+      </c>
+      <c r="APN4">
+        <v>0</v>
+      </c>
+      <c r="APO4">
+        <v>0</v>
+      </c>
+      <c r="APP4">
+        <v>0</v>
+      </c>
+      <c r="APQ4">
+        <v>0</v>
+      </c>
+      <c r="APR4">
+        <v>0</v>
+      </c>
+      <c r="APS4">
+        <v>0</v>
+      </c>
+      <c r="APT4">
+        <v>0</v>
+      </c>
+      <c r="APU4">
+        <v>0</v>
+      </c>
+      <c r="APV4">
+        <v>0</v>
+      </c>
+      <c r="APW4">
+        <v>0</v>
+      </c>
+      <c r="APX4">
+        <v>0</v>
+      </c>
+      <c r="APY4">
+        <v>0</v>
+      </c>
+      <c r="APZ4">
+        <v>0</v>
+      </c>
+      <c r="AQA4">
+        <v>0</v>
+      </c>
+      <c r="AQB4">
+        <v>0</v>
+      </c>
+      <c r="AQC4">
+        <v>0</v>
+      </c>
+      <c r="AQD4">
+        <v>0</v>
+      </c>
+      <c r="AQE4">
+        <v>0</v>
+      </c>
+      <c r="AQF4">
+        <v>0</v>
+      </c>
+      <c r="AQG4">
+        <v>0</v>
+      </c>
+      <c r="AQH4">
+        <v>0</v>
+      </c>
+      <c r="AQI4">
+        <v>298</v>
+      </c>
+      <c r="AQJ4">
+        <v>299</v>
+      </c>
     </row>
-    <row r="5" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -29969,8 +30573,158 @@
       <c r="AOL5">
         <v>0</v>
       </c>
+      <c r="AOM5">
+        <v>0</v>
+      </c>
+      <c r="AON5">
+        <v>0</v>
+      </c>
+      <c r="AOO5">
+        <v>0</v>
+      </c>
+      <c r="AOP5">
+        <v>0</v>
+      </c>
+      <c r="AOQ5">
+        <v>0</v>
+      </c>
+      <c r="AOR5">
+        <v>0</v>
+      </c>
+      <c r="AOS5">
+        <v>0</v>
+      </c>
+      <c r="AOT5">
+        <v>0</v>
+      </c>
+      <c r="AOU5">
+        <v>0</v>
+      </c>
+      <c r="AOV5">
+        <v>0</v>
+      </c>
+      <c r="AOW5">
+        <v>0</v>
+      </c>
+      <c r="AOX5">
+        <v>0</v>
+      </c>
+      <c r="AOY5">
+        <v>0</v>
+      </c>
+      <c r="AOZ5">
+        <v>0</v>
+      </c>
+      <c r="APA5">
+        <v>0</v>
+      </c>
+      <c r="APB5">
+        <v>0</v>
+      </c>
+      <c r="APC5">
+        <v>0</v>
+      </c>
+      <c r="APD5">
+        <v>0</v>
+      </c>
+      <c r="APE5">
+        <v>0</v>
+      </c>
+      <c r="APF5">
+        <v>0</v>
+      </c>
+      <c r="APG5">
+        <v>0</v>
+      </c>
+      <c r="APH5">
+        <v>0</v>
+      </c>
+      <c r="API5">
+        <v>0</v>
+      </c>
+      <c r="APJ5">
+        <v>0</v>
+      </c>
+      <c r="APK5">
+        <v>0</v>
+      </c>
+      <c r="APL5">
+        <v>0</v>
+      </c>
+      <c r="APM5">
+        <v>0</v>
+      </c>
+      <c r="APN5">
+        <v>0</v>
+      </c>
+      <c r="APO5">
+        <v>0</v>
+      </c>
+      <c r="APP5">
+        <v>0</v>
+      </c>
+      <c r="APQ5">
+        <v>0</v>
+      </c>
+      <c r="APR5">
+        <v>0</v>
+      </c>
+      <c r="APS5">
+        <v>0</v>
+      </c>
+      <c r="APT5">
+        <v>0</v>
+      </c>
+      <c r="APU5">
+        <v>0</v>
+      </c>
+      <c r="APV5">
+        <v>0</v>
+      </c>
+      <c r="APW5">
+        <v>0</v>
+      </c>
+      <c r="APX5">
+        <v>0</v>
+      </c>
+      <c r="APY5">
+        <v>0</v>
+      </c>
+      <c r="APZ5">
+        <v>0</v>
+      </c>
+      <c r="AQA5">
+        <v>0</v>
+      </c>
+      <c r="AQB5">
+        <v>0</v>
+      </c>
+      <c r="AQC5">
+        <v>0</v>
+      </c>
+      <c r="AQD5">
+        <v>0</v>
+      </c>
+      <c r="AQE5">
+        <v>0</v>
+      </c>
+      <c r="AQF5">
+        <v>0</v>
+      </c>
+      <c r="AQG5">
+        <v>0</v>
+      </c>
+      <c r="AQH5">
+        <v>0</v>
+      </c>
+      <c r="AQI5">
+        <v>296</v>
+      </c>
+      <c r="AQJ5">
+        <v>297</v>
+      </c>
     </row>
-    <row r="6" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -33205,8 +33959,158 @@
       <c r="AOL6">
         <v>0</v>
       </c>
+      <c r="AOM6">
+        <v>0</v>
+      </c>
+      <c r="AON6">
+        <v>0</v>
+      </c>
+      <c r="AOO6">
+        <v>0</v>
+      </c>
+      <c r="AOP6">
+        <v>0</v>
+      </c>
+      <c r="AOQ6">
+        <v>0</v>
+      </c>
+      <c r="AOR6">
+        <v>0</v>
+      </c>
+      <c r="AOS6">
+        <v>0</v>
+      </c>
+      <c r="AOT6">
+        <v>0</v>
+      </c>
+      <c r="AOU6">
+        <v>0</v>
+      </c>
+      <c r="AOV6">
+        <v>0</v>
+      </c>
+      <c r="AOW6">
+        <v>0</v>
+      </c>
+      <c r="AOX6">
+        <v>0</v>
+      </c>
+      <c r="AOY6">
+        <v>0</v>
+      </c>
+      <c r="AOZ6">
+        <v>0</v>
+      </c>
+      <c r="APA6">
+        <v>0</v>
+      </c>
+      <c r="APB6">
+        <v>0</v>
+      </c>
+      <c r="APC6">
+        <v>0</v>
+      </c>
+      <c r="APD6">
+        <v>0</v>
+      </c>
+      <c r="APE6">
+        <v>0</v>
+      </c>
+      <c r="APF6">
+        <v>0</v>
+      </c>
+      <c r="APG6">
+        <v>0</v>
+      </c>
+      <c r="APH6">
+        <v>0</v>
+      </c>
+      <c r="API6">
+        <v>0</v>
+      </c>
+      <c r="APJ6">
+        <v>0</v>
+      </c>
+      <c r="APK6">
+        <v>0</v>
+      </c>
+      <c r="APL6">
+        <v>0</v>
+      </c>
+      <c r="APM6">
+        <v>0</v>
+      </c>
+      <c r="APN6">
+        <v>0</v>
+      </c>
+      <c r="APO6">
+        <v>0</v>
+      </c>
+      <c r="APP6">
+        <v>0</v>
+      </c>
+      <c r="APQ6">
+        <v>0</v>
+      </c>
+      <c r="APR6">
+        <v>0</v>
+      </c>
+      <c r="APS6">
+        <v>0</v>
+      </c>
+      <c r="APT6">
+        <v>0</v>
+      </c>
+      <c r="APU6">
+        <v>0</v>
+      </c>
+      <c r="APV6">
+        <v>0</v>
+      </c>
+      <c r="APW6">
+        <v>0</v>
+      </c>
+      <c r="APX6">
+        <v>0</v>
+      </c>
+      <c r="APY6">
+        <v>0</v>
+      </c>
+      <c r="APZ6">
+        <v>0</v>
+      </c>
+      <c r="AQA6">
+        <v>0</v>
+      </c>
+      <c r="AQB6">
+        <v>0</v>
+      </c>
+      <c r="AQC6">
+        <v>0</v>
+      </c>
+      <c r="AQD6">
+        <v>0</v>
+      </c>
+      <c r="AQE6">
+        <v>0</v>
+      </c>
+      <c r="AQF6">
+        <v>0</v>
+      </c>
+      <c r="AQG6">
+        <v>0</v>
+      </c>
+      <c r="AQH6">
+        <v>0</v>
+      </c>
+      <c r="AQI6">
+        <v>298</v>
+      </c>
+      <c r="AQJ6">
+        <v>299</v>
+      </c>
     </row>
-    <row r="7" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -36441,8 +37345,158 @@
       <c r="AOL7">
         <v>0</v>
       </c>
+      <c r="AOM7">
+        <v>0</v>
+      </c>
+      <c r="AON7">
+        <v>0</v>
+      </c>
+      <c r="AOO7">
+        <v>0</v>
+      </c>
+      <c r="AOP7">
+        <v>0</v>
+      </c>
+      <c r="AOQ7">
+        <v>0</v>
+      </c>
+      <c r="AOR7">
+        <v>0</v>
+      </c>
+      <c r="AOS7">
+        <v>0</v>
+      </c>
+      <c r="AOT7">
+        <v>0</v>
+      </c>
+      <c r="AOU7">
+        <v>0</v>
+      </c>
+      <c r="AOV7">
+        <v>0</v>
+      </c>
+      <c r="AOW7">
+        <v>0</v>
+      </c>
+      <c r="AOX7">
+        <v>0</v>
+      </c>
+      <c r="AOY7">
+        <v>0</v>
+      </c>
+      <c r="AOZ7">
+        <v>0</v>
+      </c>
+      <c r="APA7">
+        <v>0</v>
+      </c>
+      <c r="APB7">
+        <v>0</v>
+      </c>
+      <c r="APC7">
+        <v>0</v>
+      </c>
+      <c r="APD7">
+        <v>0</v>
+      </c>
+      <c r="APE7">
+        <v>0</v>
+      </c>
+      <c r="APF7">
+        <v>0</v>
+      </c>
+      <c r="APG7">
+        <v>0</v>
+      </c>
+      <c r="APH7">
+        <v>0</v>
+      </c>
+      <c r="API7">
+        <v>0</v>
+      </c>
+      <c r="APJ7">
+        <v>0</v>
+      </c>
+      <c r="APK7">
+        <v>0</v>
+      </c>
+      <c r="APL7">
+        <v>0</v>
+      </c>
+      <c r="APM7">
+        <v>0</v>
+      </c>
+      <c r="APN7">
+        <v>0</v>
+      </c>
+      <c r="APO7">
+        <v>0</v>
+      </c>
+      <c r="APP7">
+        <v>0</v>
+      </c>
+      <c r="APQ7">
+        <v>0</v>
+      </c>
+      <c r="APR7">
+        <v>0</v>
+      </c>
+      <c r="APS7">
+        <v>0</v>
+      </c>
+      <c r="APT7">
+        <v>0</v>
+      </c>
+      <c r="APU7">
+        <v>0</v>
+      </c>
+      <c r="APV7">
+        <v>0</v>
+      </c>
+      <c r="APW7">
+        <v>0</v>
+      </c>
+      <c r="APX7">
+        <v>0</v>
+      </c>
+      <c r="APY7">
+        <v>0</v>
+      </c>
+      <c r="APZ7">
+        <v>0</v>
+      </c>
+      <c r="AQA7">
+        <v>0</v>
+      </c>
+      <c r="AQB7">
+        <v>0</v>
+      </c>
+      <c r="AQC7">
+        <v>0</v>
+      </c>
+      <c r="AQD7">
+        <v>0</v>
+      </c>
+      <c r="AQE7">
+        <v>0</v>
+      </c>
+      <c r="AQF7">
+        <v>0</v>
+      </c>
+      <c r="AQG7">
+        <v>0</v>
+      </c>
+      <c r="AQH7">
+        <v>0</v>
+      </c>
+      <c r="AQI7">
+        <v>296</v>
+      </c>
+      <c r="AQJ7">
+        <v>297</v>
+      </c>
     </row>
-    <row r="8" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -39677,8 +40731,158 @@
       <c r="AOL8">
         <v>0</v>
       </c>
+      <c r="AOM8">
+        <v>0</v>
+      </c>
+      <c r="AON8">
+        <v>0</v>
+      </c>
+      <c r="AOO8">
+        <v>0</v>
+      </c>
+      <c r="AOP8">
+        <v>0</v>
+      </c>
+      <c r="AOQ8">
+        <v>0</v>
+      </c>
+      <c r="AOR8">
+        <v>0</v>
+      </c>
+      <c r="AOS8">
+        <v>0</v>
+      </c>
+      <c r="AOT8">
+        <v>0</v>
+      </c>
+      <c r="AOU8">
+        <v>0</v>
+      </c>
+      <c r="AOV8">
+        <v>0</v>
+      </c>
+      <c r="AOW8">
+        <v>0</v>
+      </c>
+      <c r="AOX8">
+        <v>0</v>
+      </c>
+      <c r="AOY8">
+        <v>0</v>
+      </c>
+      <c r="AOZ8">
+        <v>0</v>
+      </c>
+      <c r="APA8">
+        <v>0</v>
+      </c>
+      <c r="APB8">
+        <v>0</v>
+      </c>
+      <c r="APC8">
+        <v>0</v>
+      </c>
+      <c r="APD8">
+        <v>0</v>
+      </c>
+      <c r="APE8">
+        <v>0</v>
+      </c>
+      <c r="APF8">
+        <v>0</v>
+      </c>
+      <c r="APG8">
+        <v>0</v>
+      </c>
+      <c r="APH8">
+        <v>0</v>
+      </c>
+      <c r="API8">
+        <v>0</v>
+      </c>
+      <c r="APJ8">
+        <v>0</v>
+      </c>
+      <c r="APK8">
+        <v>0</v>
+      </c>
+      <c r="APL8">
+        <v>0</v>
+      </c>
+      <c r="APM8">
+        <v>0</v>
+      </c>
+      <c r="APN8">
+        <v>0</v>
+      </c>
+      <c r="APO8">
+        <v>0</v>
+      </c>
+      <c r="APP8">
+        <v>0</v>
+      </c>
+      <c r="APQ8">
+        <v>0</v>
+      </c>
+      <c r="APR8">
+        <v>0</v>
+      </c>
+      <c r="APS8">
+        <v>0</v>
+      </c>
+      <c r="APT8">
+        <v>0</v>
+      </c>
+      <c r="APU8">
+        <v>0</v>
+      </c>
+      <c r="APV8">
+        <v>0</v>
+      </c>
+      <c r="APW8">
+        <v>0</v>
+      </c>
+      <c r="APX8">
+        <v>0</v>
+      </c>
+      <c r="APY8">
+        <v>0</v>
+      </c>
+      <c r="APZ8">
+        <v>0</v>
+      </c>
+      <c r="AQA8">
+        <v>0</v>
+      </c>
+      <c r="AQB8">
+        <v>0</v>
+      </c>
+      <c r="AQC8">
+        <v>0</v>
+      </c>
+      <c r="AQD8">
+        <v>0</v>
+      </c>
+      <c r="AQE8">
+        <v>0</v>
+      </c>
+      <c r="AQF8">
+        <v>0</v>
+      </c>
+      <c r="AQG8">
+        <v>0</v>
+      </c>
+      <c r="AQH8">
+        <v>0</v>
+      </c>
+      <c r="AQI8">
+        <v>298</v>
+      </c>
+      <c r="AQJ8">
+        <v>299</v>
+      </c>
     </row>
-    <row r="9" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -42913,8 +44117,158 @@
       <c r="AOL9">
         <v>0</v>
       </c>
+      <c r="AOM9">
+        <v>0</v>
+      </c>
+      <c r="AON9">
+        <v>0</v>
+      </c>
+      <c r="AOO9">
+        <v>0</v>
+      </c>
+      <c r="AOP9">
+        <v>0</v>
+      </c>
+      <c r="AOQ9">
+        <v>0</v>
+      </c>
+      <c r="AOR9">
+        <v>0</v>
+      </c>
+      <c r="AOS9">
+        <v>0</v>
+      </c>
+      <c r="AOT9">
+        <v>0</v>
+      </c>
+      <c r="AOU9">
+        <v>0</v>
+      </c>
+      <c r="AOV9">
+        <v>0</v>
+      </c>
+      <c r="AOW9">
+        <v>0</v>
+      </c>
+      <c r="AOX9">
+        <v>0</v>
+      </c>
+      <c r="AOY9">
+        <v>0</v>
+      </c>
+      <c r="AOZ9">
+        <v>0</v>
+      </c>
+      <c r="APA9">
+        <v>0</v>
+      </c>
+      <c r="APB9">
+        <v>0</v>
+      </c>
+      <c r="APC9">
+        <v>0</v>
+      </c>
+      <c r="APD9">
+        <v>0</v>
+      </c>
+      <c r="APE9">
+        <v>0</v>
+      </c>
+      <c r="APF9">
+        <v>0</v>
+      </c>
+      <c r="APG9">
+        <v>0</v>
+      </c>
+      <c r="APH9">
+        <v>0</v>
+      </c>
+      <c r="API9">
+        <v>0</v>
+      </c>
+      <c r="APJ9">
+        <v>0</v>
+      </c>
+      <c r="APK9">
+        <v>0</v>
+      </c>
+      <c r="APL9">
+        <v>0</v>
+      </c>
+      <c r="APM9">
+        <v>0</v>
+      </c>
+      <c r="APN9">
+        <v>0</v>
+      </c>
+      <c r="APO9">
+        <v>0</v>
+      </c>
+      <c r="APP9">
+        <v>0</v>
+      </c>
+      <c r="APQ9">
+        <v>0</v>
+      </c>
+      <c r="APR9">
+        <v>0</v>
+      </c>
+      <c r="APS9">
+        <v>0</v>
+      </c>
+      <c r="APT9">
+        <v>0</v>
+      </c>
+      <c r="APU9">
+        <v>0</v>
+      </c>
+      <c r="APV9">
+        <v>0</v>
+      </c>
+      <c r="APW9">
+        <v>0</v>
+      </c>
+      <c r="APX9">
+        <v>0</v>
+      </c>
+      <c r="APY9">
+        <v>0</v>
+      </c>
+      <c r="APZ9">
+        <v>0</v>
+      </c>
+      <c r="AQA9">
+        <v>0</v>
+      </c>
+      <c r="AQB9">
+        <v>0</v>
+      </c>
+      <c r="AQC9">
+        <v>0</v>
+      </c>
+      <c r="AQD9">
+        <v>0</v>
+      </c>
+      <c r="AQE9">
+        <v>0</v>
+      </c>
+      <c r="AQF9">
+        <v>0</v>
+      </c>
+      <c r="AQG9">
+        <v>0</v>
+      </c>
+      <c r="AQH9">
+        <v>0</v>
+      </c>
+      <c r="AQI9">
+        <v>296</v>
+      </c>
+      <c r="AQJ9">
+        <v>297</v>
+      </c>
     </row>
-    <row r="10" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -46149,8 +47503,158 @@
       <c r="AOL10">
         <v>0</v>
       </c>
+      <c r="AOM10">
+        <v>0</v>
+      </c>
+      <c r="AON10">
+        <v>0</v>
+      </c>
+      <c r="AOO10">
+        <v>0</v>
+      </c>
+      <c r="AOP10">
+        <v>0</v>
+      </c>
+      <c r="AOQ10">
+        <v>0</v>
+      </c>
+      <c r="AOR10">
+        <v>0</v>
+      </c>
+      <c r="AOS10">
+        <v>0</v>
+      </c>
+      <c r="AOT10">
+        <v>0</v>
+      </c>
+      <c r="AOU10">
+        <v>0</v>
+      </c>
+      <c r="AOV10">
+        <v>0</v>
+      </c>
+      <c r="AOW10">
+        <v>0</v>
+      </c>
+      <c r="AOX10">
+        <v>0</v>
+      </c>
+      <c r="AOY10">
+        <v>0</v>
+      </c>
+      <c r="AOZ10">
+        <v>0</v>
+      </c>
+      <c r="APA10">
+        <v>0</v>
+      </c>
+      <c r="APB10">
+        <v>0</v>
+      </c>
+      <c r="APC10">
+        <v>0</v>
+      </c>
+      <c r="APD10">
+        <v>0</v>
+      </c>
+      <c r="APE10">
+        <v>0</v>
+      </c>
+      <c r="APF10">
+        <v>0</v>
+      </c>
+      <c r="APG10">
+        <v>0</v>
+      </c>
+      <c r="APH10">
+        <v>0</v>
+      </c>
+      <c r="API10">
+        <v>0</v>
+      </c>
+      <c r="APJ10">
+        <v>0</v>
+      </c>
+      <c r="APK10">
+        <v>0</v>
+      </c>
+      <c r="APL10">
+        <v>0</v>
+      </c>
+      <c r="APM10">
+        <v>0</v>
+      </c>
+      <c r="APN10">
+        <v>0</v>
+      </c>
+      <c r="APO10">
+        <v>0</v>
+      </c>
+      <c r="APP10">
+        <v>0</v>
+      </c>
+      <c r="APQ10">
+        <v>0</v>
+      </c>
+      <c r="APR10">
+        <v>0</v>
+      </c>
+      <c r="APS10">
+        <v>0</v>
+      </c>
+      <c r="APT10">
+        <v>0</v>
+      </c>
+      <c r="APU10">
+        <v>0</v>
+      </c>
+      <c r="APV10">
+        <v>0</v>
+      </c>
+      <c r="APW10">
+        <v>0</v>
+      </c>
+      <c r="APX10">
+        <v>0</v>
+      </c>
+      <c r="APY10">
+        <v>0</v>
+      </c>
+      <c r="APZ10">
+        <v>0</v>
+      </c>
+      <c r="AQA10">
+        <v>0</v>
+      </c>
+      <c r="AQB10">
+        <v>0</v>
+      </c>
+      <c r="AQC10">
+        <v>0</v>
+      </c>
+      <c r="AQD10">
+        <v>0</v>
+      </c>
+      <c r="AQE10">
+        <v>0</v>
+      </c>
+      <c r="AQF10">
+        <v>0</v>
+      </c>
+      <c r="AQG10">
+        <v>0</v>
+      </c>
+      <c r="AQH10">
+        <v>0</v>
+      </c>
+      <c r="AQI10">
+        <v>298</v>
+      </c>
+      <c r="AQJ10">
+        <v>299</v>
+      </c>
     </row>
-    <row r="11" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -49385,8 +50889,158 @@
       <c r="AOL11">
         <v>0</v>
       </c>
+      <c r="AOM11">
+        <v>0</v>
+      </c>
+      <c r="AON11">
+        <v>0</v>
+      </c>
+      <c r="AOO11">
+        <v>0</v>
+      </c>
+      <c r="AOP11">
+        <v>0</v>
+      </c>
+      <c r="AOQ11">
+        <v>0</v>
+      </c>
+      <c r="AOR11">
+        <v>0</v>
+      </c>
+      <c r="AOS11">
+        <v>0</v>
+      </c>
+      <c r="AOT11">
+        <v>0</v>
+      </c>
+      <c r="AOU11">
+        <v>0</v>
+      </c>
+      <c r="AOV11">
+        <v>0</v>
+      </c>
+      <c r="AOW11">
+        <v>0</v>
+      </c>
+      <c r="AOX11">
+        <v>0</v>
+      </c>
+      <c r="AOY11">
+        <v>0</v>
+      </c>
+      <c r="AOZ11">
+        <v>0</v>
+      </c>
+      <c r="APA11">
+        <v>0</v>
+      </c>
+      <c r="APB11">
+        <v>0</v>
+      </c>
+      <c r="APC11">
+        <v>0</v>
+      </c>
+      <c r="APD11">
+        <v>0</v>
+      </c>
+      <c r="APE11">
+        <v>0</v>
+      </c>
+      <c r="APF11">
+        <v>0</v>
+      </c>
+      <c r="APG11">
+        <v>0</v>
+      </c>
+      <c r="APH11">
+        <v>0</v>
+      </c>
+      <c r="API11">
+        <v>0</v>
+      </c>
+      <c r="APJ11">
+        <v>0</v>
+      </c>
+      <c r="APK11">
+        <v>0</v>
+      </c>
+      <c r="APL11">
+        <v>0</v>
+      </c>
+      <c r="APM11">
+        <v>0</v>
+      </c>
+      <c r="APN11">
+        <v>0</v>
+      </c>
+      <c r="APO11">
+        <v>0</v>
+      </c>
+      <c r="APP11">
+        <v>0</v>
+      </c>
+      <c r="APQ11">
+        <v>0</v>
+      </c>
+      <c r="APR11">
+        <v>0</v>
+      </c>
+      <c r="APS11">
+        <v>0</v>
+      </c>
+      <c r="APT11">
+        <v>0</v>
+      </c>
+      <c r="APU11">
+        <v>0</v>
+      </c>
+      <c r="APV11">
+        <v>0</v>
+      </c>
+      <c r="APW11">
+        <v>0</v>
+      </c>
+      <c r="APX11">
+        <v>0</v>
+      </c>
+      <c r="APY11">
+        <v>0</v>
+      </c>
+      <c r="APZ11">
+        <v>0</v>
+      </c>
+      <c r="AQA11">
+        <v>0</v>
+      </c>
+      <c r="AQB11">
+        <v>0</v>
+      </c>
+      <c r="AQC11">
+        <v>0</v>
+      </c>
+      <c r="AQD11">
+        <v>0</v>
+      </c>
+      <c r="AQE11">
+        <v>0</v>
+      </c>
+      <c r="AQF11">
+        <v>0</v>
+      </c>
+      <c r="AQG11">
+        <v>0</v>
+      </c>
+      <c r="AQH11">
+        <v>0</v>
+      </c>
+      <c r="AQI11">
+        <v>296</v>
+      </c>
+      <c r="AQJ11">
+        <v>297</v>
+      </c>
     </row>
-    <row r="12" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -52621,8 +54275,158 @@
       <c r="AOL12">
         <v>0</v>
       </c>
+      <c r="AOM12">
+        <v>0</v>
+      </c>
+      <c r="AON12">
+        <v>0</v>
+      </c>
+      <c r="AOO12">
+        <v>0</v>
+      </c>
+      <c r="AOP12">
+        <v>0</v>
+      </c>
+      <c r="AOQ12">
+        <v>0</v>
+      </c>
+      <c r="AOR12">
+        <v>0</v>
+      </c>
+      <c r="AOS12">
+        <v>0</v>
+      </c>
+      <c r="AOT12">
+        <v>0</v>
+      </c>
+      <c r="AOU12">
+        <v>0</v>
+      </c>
+      <c r="AOV12">
+        <v>0</v>
+      </c>
+      <c r="AOW12">
+        <v>0</v>
+      </c>
+      <c r="AOX12">
+        <v>0</v>
+      </c>
+      <c r="AOY12">
+        <v>0</v>
+      </c>
+      <c r="AOZ12">
+        <v>0</v>
+      </c>
+      <c r="APA12">
+        <v>0</v>
+      </c>
+      <c r="APB12">
+        <v>0</v>
+      </c>
+      <c r="APC12">
+        <v>313</v>
+      </c>
+      <c r="APD12">
+        <v>300</v>
+      </c>
+      <c r="APE12">
+        <v>314</v>
+      </c>
+      <c r="APF12">
+        <v>315</v>
+      </c>
+      <c r="APG12">
+        <v>0</v>
+      </c>
+      <c r="APH12">
+        <v>0</v>
+      </c>
+      <c r="API12">
+        <v>0</v>
+      </c>
+      <c r="APJ12">
+        <v>0</v>
+      </c>
+      <c r="APK12">
+        <v>0</v>
+      </c>
+      <c r="APL12">
+        <v>0</v>
+      </c>
+      <c r="APM12">
+        <v>0</v>
+      </c>
+      <c r="APN12">
+        <v>0</v>
+      </c>
+      <c r="APO12">
+        <v>0</v>
+      </c>
+      <c r="APP12">
+        <v>0</v>
+      </c>
+      <c r="APQ12">
+        <v>0</v>
+      </c>
+      <c r="APR12">
+        <v>0</v>
+      </c>
+      <c r="APS12">
+        <v>0</v>
+      </c>
+      <c r="APT12">
+        <v>0</v>
+      </c>
+      <c r="APU12">
+        <v>0</v>
+      </c>
+      <c r="APV12">
+        <v>0</v>
+      </c>
+      <c r="APW12">
+        <v>0</v>
+      </c>
+      <c r="APX12">
+        <v>0</v>
+      </c>
+      <c r="APY12">
+        <v>0</v>
+      </c>
+      <c r="APZ12">
+        <v>0</v>
+      </c>
+      <c r="AQA12">
+        <v>0</v>
+      </c>
+      <c r="AQB12">
+        <v>0</v>
+      </c>
+      <c r="AQC12">
+        <v>0</v>
+      </c>
+      <c r="AQD12">
+        <v>0</v>
+      </c>
+      <c r="AQE12">
+        <v>0</v>
+      </c>
+      <c r="AQF12">
+        <v>0</v>
+      </c>
+      <c r="AQG12">
+        <v>0</v>
+      </c>
+      <c r="AQH12">
+        <v>0</v>
+      </c>
+      <c r="AQI12">
+        <v>298</v>
+      </c>
+      <c r="AQJ12">
+        <v>299</v>
+      </c>
     </row>
-    <row r="13" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -55857,8 +57661,158 @@
       <c r="AOL13">
         <v>0</v>
       </c>
+      <c r="AOM13">
+        <v>0</v>
+      </c>
+      <c r="AON13">
+        <v>0</v>
+      </c>
+      <c r="AOO13">
+        <v>0</v>
+      </c>
+      <c r="AOP13">
+        <v>0</v>
+      </c>
+      <c r="AOQ13">
+        <v>0</v>
+      </c>
+      <c r="AOR13">
+        <v>0</v>
+      </c>
+      <c r="AOS13">
+        <v>0</v>
+      </c>
+      <c r="AOT13">
+        <v>0</v>
+      </c>
+      <c r="AOU13">
+        <v>0</v>
+      </c>
+      <c r="AOV13">
+        <v>0</v>
+      </c>
+      <c r="AOW13">
+        <v>0</v>
+      </c>
+      <c r="AOX13">
+        <v>0</v>
+      </c>
+      <c r="AOY13">
+        <v>0</v>
+      </c>
+      <c r="AOZ13">
+        <v>0</v>
+      </c>
+      <c r="APA13">
+        <v>301</v>
+      </c>
+      <c r="APB13">
+        <v>302</v>
+      </c>
+      <c r="APC13">
+        <v>306</v>
+      </c>
+      <c r="APD13">
+        <v>307</v>
+      </c>
+      <c r="APE13">
+        <v>316</v>
+      </c>
+      <c r="APF13">
+        <v>317</v>
+      </c>
+      <c r="APG13">
+        <v>320</v>
+      </c>
+      <c r="APH13">
+        <v>321</v>
+      </c>
+      <c r="API13">
+        <v>0</v>
+      </c>
+      <c r="APJ13">
+        <v>0</v>
+      </c>
+      <c r="APK13">
+        <v>0</v>
+      </c>
+      <c r="APL13">
+        <v>0</v>
+      </c>
+      <c r="APM13">
+        <v>0</v>
+      </c>
+      <c r="APN13">
+        <v>0</v>
+      </c>
+      <c r="APO13">
+        <v>0</v>
+      </c>
+      <c r="APP13">
+        <v>0</v>
+      </c>
+      <c r="APQ13">
+        <v>0</v>
+      </c>
+      <c r="APR13">
+        <v>0</v>
+      </c>
+      <c r="APS13">
+        <v>0</v>
+      </c>
+      <c r="APT13">
+        <v>0</v>
+      </c>
+      <c r="APU13">
+        <v>0</v>
+      </c>
+      <c r="APV13">
+        <v>0</v>
+      </c>
+      <c r="APW13">
+        <v>0</v>
+      </c>
+      <c r="APX13">
+        <v>0</v>
+      </c>
+      <c r="APY13">
+        <v>0</v>
+      </c>
+      <c r="APZ13">
+        <v>0</v>
+      </c>
+      <c r="AQA13">
+        <v>0</v>
+      </c>
+      <c r="AQB13">
+        <v>0</v>
+      </c>
+      <c r="AQC13">
+        <v>0</v>
+      </c>
+      <c r="AQD13">
+        <v>0</v>
+      </c>
+      <c r="AQE13">
+        <v>0</v>
+      </c>
+      <c r="AQF13">
+        <v>0</v>
+      </c>
+      <c r="AQG13">
+        <v>0</v>
+      </c>
+      <c r="AQH13">
+        <v>0</v>
+      </c>
+      <c r="AQI13">
+        <v>296</v>
+      </c>
+      <c r="AQJ13">
+        <v>297</v>
+      </c>
     </row>
-    <row r="14" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -59093,8 +61047,158 @@
       <c r="AOL14">
         <v>0</v>
       </c>
+      <c r="AOM14">
+        <v>0</v>
+      </c>
+      <c r="AON14">
+        <v>0</v>
+      </c>
+      <c r="AOO14">
+        <v>0</v>
+      </c>
+      <c r="AOP14">
+        <v>0</v>
+      </c>
+      <c r="AOQ14">
+        <v>0</v>
+      </c>
+      <c r="AOR14">
+        <v>0</v>
+      </c>
+      <c r="AOS14">
+        <v>0</v>
+      </c>
+      <c r="AOT14">
+        <v>0</v>
+      </c>
+      <c r="AOU14">
+        <v>0</v>
+      </c>
+      <c r="AOV14">
+        <v>0</v>
+      </c>
+      <c r="AOW14">
+        <v>0</v>
+      </c>
+      <c r="AOX14">
+        <v>0</v>
+      </c>
+      <c r="AOY14">
+        <v>313</v>
+      </c>
+      <c r="AOZ14">
+        <v>300</v>
+      </c>
+      <c r="APA14">
+        <v>304</v>
+      </c>
+      <c r="APB14">
+        <v>305</v>
+      </c>
+      <c r="APC14">
+        <v>308</v>
+      </c>
+      <c r="APD14">
+        <v>309</v>
+      </c>
+      <c r="APE14">
+        <v>318</v>
+      </c>
+      <c r="APF14">
+        <v>319</v>
+      </c>
+      <c r="APG14">
+        <v>322</v>
+      </c>
+      <c r="APH14">
+        <v>323</v>
+      </c>
+      <c r="API14">
+        <v>314</v>
+      </c>
+      <c r="APJ14">
+        <v>315</v>
+      </c>
+      <c r="APK14">
+        <v>0</v>
+      </c>
+      <c r="APL14">
+        <v>0</v>
+      </c>
+      <c r="APM14">
+        <v>0</v>
+      </c>
+      <c r="APN14">
+        <v>0</v>
+      </c>
+      <c r="APO14">
+        <v>0</v>
+      </c>
+      <c r="APP14">
+        <v>0</v>
+      </c>
+      <c r="APQ14">
+        <v>0</v>
+      </c>
+      <c r="APR14">
+        <v>0</v>
+      </c>
+      <c r="APS14">
+        <v>0</v>
+      </c>
+      <c r="APT14">
+        <v>0</v>
+      </c>
+      <c r="APU14">
+        <v>0</v>
+      </c>
+      <c r="APV14">
+        <v>0</v>
+      </c>
+      <c r="APW14">
+        <v>0</v>
+      </c>
+      <c r="APX14">
+        <v>0</v>
+      </c>
+      <c r="APY14">
+        <v>0</v>
+      </c>
+      <c r="APZ14">
+        <v>0</v>
+      </c>
+      <c r="AQA14">
+        <v>0</v>
+      </c>
+      <c r="AQB14">
+        <v>0</v>
+      </c>
+      <c r="AQC14">
+        <v>0</v>
+      </c>
+      <c r="AQD14">
+        <v>0</v>
+      </c>
+      <c r="AQE14">
+        <v>0</v>
+      </c>
+      <c r="AQF14">
+        <v>0</v>
+      </c>
+      <c r="AQG14">
+        <v>0</v>
+      </c>
+      <c r="AQH14">
+        <v>0</v>
+      </c>
+      <c r="AQI14">
+        <v>298</v>
+      </c>
+      <c r="AQJ14">
+        <v>299</v>
+      </c>
     </row>
-    <row r="15" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -62329,8 +64433,158 @@
       <c r="AOL15">
         <v>0</v>
       </c>
+      <c r="AOM15">
+        <v>0</v>
+      </c>
+      <c r="AON15">
+        <v>0</v>
+      </c>
+      <c r="AOO15">
+        <v>0</v>
+      </c>
+      <c r="AOP15">
+        <v>0</v>
+      </c>
+      <c r="AOQ15">
+        <v>0</v>
+      </c>
+      <c r="AOR15">
+        <v>0</v>
+      </c>
+      <c r="AOS15">
+        <v>0</v>
+      </c>
+      <c r="AOT15">
+        <v>0</v>
+      </c>
+      <c r="AOU15">
+        <v>0</v>
+      </c>
+      <c r="AOV15">
+        <v>0</v>
+      </c>
+      <c r="AOW15">
+        <v>301</v>
+      </c>
+      <c r="AOX15">
+        <v>302</v>
+      </c>
+      <c r="AOY15">
+        <v>306</v>
+      </c>
+      <c r="AOZ15">
+        <v>307</v>
+      </c>
+      <c r="APA15">
+        <v>185</v>
+      </c>
+      <c r="APB15">
+        <v>186</v>
+      </c>
+      <c r="APC15">
+        <v>185</v>
+      </c>
+      <c r="APD15">
+        <v>186</v>
+      </c>
+      <c r="APE15">
+        <v>185</v>
+      </c>
+      <c r="APF15">
+        <v>186</v>
+      </c>
+      <c r="APG15">
+        <v>185</v>
+      </c>
+      <c r="APH15">
+        <v>186</v>
+      </c>
+      <c r="API15">
+        <v>316</v>
+      </c>
+      <c r="APJ15">
+        <v>317</v>
+      </c>
+      <c r="APK15">
+        <v>320</v>
+      </c>
+      <c r="APL15">
+        <v>321</v>
+      </c>
+      <c r="APM15">
+        <v>0</v>
+      </c>
+      <c r="APN15">
+        <v>0</v>
+      </c>
+      <c r="APO15">
+        <v>0</v>
+      </c>
+      <c r="APP15">
+        <v>0</v>
+      </c>
+      <c r="APQ15">
+        <v>0</v>
+      </c>
+      <c r="APR15">
+        <v>0</v>
+      </c>
+      <c r="APS15">
+        <v>0</v>
+      </c>
+      <c r="APT15">
+        <v>0</v>
+      </c>
+      <c r="APU15">
+        <v>0</v>
+      </c>
+      <c r="APV15">
+        <v>0</v>
+      </c>
+      <c r="APW15">
+        <v>0</v>
+      </c>
+      <c r="APX15">
+        <v>0</v>
+      </c>
+      <c r="APY15">
+        <v>0</v>
+      </c>
+      <c r="APZ15">
+        <v>0</v>
+      </c>
+      <c r="AQA15">
+        <v>0</v>
+      </c>
+      <c r="AQB15">
+        <v>0</v>
+      </c>
+      <c r="AQC15">
+        <v>0</v>
+      </c>
+      <c r="AQD15">
+        <v>0</v>
+      </c>
+      <c r="AQE15">
+        <v>0</v>
+      </c>
+      <c r="AQF15">
+        <v>0</v>
+      </c>
+      <c r="AQG15">
+        <v>0</v>
+      </c>
+      <c r="AQH15">
+        <v>0</v>
+      </c>
+      <c r="AQI15">
+        <v>296</v>
+      </c>
+      <c r="AQJ15">
+        <v>297</v>
+      </c>
     </row>
-    <row r="16" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -65565,8 +67819,158 @@
       <c r="AOL16">
         <v>0</v>
       </c>
+      <c r="AOM16">
+        <v>155</v>
+      </c>
+      <c r="AON16">
+        <v>156</v>
+      </c>
+      <c r="AOO16">
+        <v>157</v>
+      </c>
+      <c r="AOP16">
+        <v>158</v>
+      </c>
+      <c r="AOQ16">
+        <v>159</v>
+      </c>
+      <c r="AOR16" s="12">
+        <v>160</v>
+      </c>
+      <c r="AOS16">
+        <v>161</v>
+      </c>
+      <c r="AOT16">
+        <v>162</v>
+      </c>
+      <c r="AOU16">
+        <v>199</v>
+      </c>
+      <c r="AOV16" s="12">
+        <v>300</v>
+      </c>
+      <c r="AOW16">
+        <v>304</v>
+      </c>
+      <c r="AOX16">
+        <v>305</v>
+      </c>
+      <c r="AOY16">
+        <v>308</v>
+      </c>
+      <c r="AOZ16">
+        <v>309</v>
+      </c>
+      <c r="APA16">
+        <v>193</v>
+      </c>
+      <c r="APB16">
+        <v>194</v>
+      </c>
+      <c r="APC16">
+        <v>193</v>
+      </c>
+      <c r="APD16">
+        <v>194</v>
+      </c>
+      <c r="APE16">
+        <v>193</v>
+      </c>
+      <c r="APF16">
+        <v>194</v>
+      </c>
+      <c r="APG16">
+        <v>193</v>
+      </c>
+      <c r="APH16">
+        <v>194</v>
+      </c>
+      <c r="API16">
+        <v>318</v>
+      </c>
+      <c r="APJ16">
+        <v>319</v>
+      </c>
+      <c r="APK16">
+        <v>322</v>
+      </c>
+      <c r="APL16">
+        <v>323</v>
+      </c>
+      <c r="APM16">
+        <v>314</v>
+      </c>
+      <c r="APN16">
+        <v>315</v>
+      </c>
+      <c r="APO16">
+        <v>0</v>
+      </c>
+      <c r="APP16">
+        <v>0</v>
+      </c>
+      <c r="APQ16">
+        <v>0</v>
+      </c>
+      <c r="APR16">
+        <v>0</v>
+      </c>
+      <c r="APS16">
+        <v>0</v>
+      </c>
+      <c r="APT16">
+        <v>0</v>
+      </c>
+      <c r="APU16">
+        <v>0</v>
+      </c>
+      <c r="APV16">
+        <v>0</v>
+      </c>
+      <c r="APW16">
+        <v>0</v>
+      </c>
+      <c r="APX16">
+        <v>0</v>
+      </c>
+      <c r="APY16">
+        <v>0</v>
+      </c>
+      <c r="APZ16">
+        <v>0</v>
+      </c>
+      <c r="AQA16">
+        <v>0</v>
+      </c>
+      <c r="AQB16">
+        <v>0</v>
+      </c>
+      <c r="AQC16">
+        <v>0</v>
+      </c>
+      <c r="AQD16">
+        <v>0</v>
+      </c>
+      <c r="AQE16">
+        <v>0</v>
+      </c>
+      <c r="AQF16">
+        <v>0</v>
+      </c>
+      <c r="AQG16">
+        <v>0</v>
+      </c>
+      <c r="AQH16">
+        <v>0</v>
+      </c>
+      <c r="AQI16">
+        <v>298</v>
+      </c>
+      <c r="AQJ16">
+        <v>299</v>
+      </c>
     </row>
-    <row r="17" spans="1:1078" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1128" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>1</v>
       </c>
@@ -68801,8 +71205,158 @@
       <c r="AOL17" s="24">
         <v>196</v>
       </c>
+      <c r="AOM17">
+        <v>163</v>
+      </c>
+      <c r="AON17">
+        <v>163</v>
+      </c>
+      <c r="AOO17">
+        <v>165</v>
+      </c>
+      <c r="AOP17">
+        <v>166</v>
+      </c>
+      <c r="AOQ17">
+        <v>167</v>
+      </c>
+      <c r="AOR17">
+        <v>168</v>
+      </c>
+      <c r="AOS17">
+        <v>169</v>
+      </c>
+      <c r="AOT17">
+        <v>170</v>
+      </c>
+      <c r="AOU17">
+        <v>310</v>
+      </c>
+      <c r="AOV17">
+        <v>311</v>
+      </c>
+      <c r="AOW17">
+        <v>185</v>
+      </c>
+      <c r="AOX17">
+        <v>186</v>
+      </c>
+      <c r="AOY17">
+        <v>185</v>
+      </c>
+      <c r="AOZ17">
+        <v>186</v>
+      </c>
+      <c r="APA17">
+        <v>185</v>
+      </c>
+      <c r="APB17">
+        <v>186</v>
+      </c>
+      <c r="APC17">
+        <v>185</v>
+      </c>
+      <c r="APD17">
+        <v>186</v>
+      </c>
+      <c r="APE17">
+        <v>185</v>
+      </c>
+      <c r="APF17">
+        <v>186</v>
+      </c>
+      <c r="APG17">
+        <v>185</v>
+      </c>
+      <c r="APH17">
+        <v>186</v>
+      </c>
+      <c r="API17">
+        <v>185</v>
+      </c>
+      <c r="APJ17">
+        <v>186</v>
+      </c>
+      <c r="APK17">
+        <v>185</v>
+      </c>
+      <c r="APL17">
+        <v>186</v>
+      </c>
+      <c r="APM17">
+        <v>316</v>
+      </c>
+      <c r="APN17">
+        <v>317</v>
+      </c>
+      <c r="APO17">
+        <v>320</v>
+      </c>
+      <c r="APP17">
+        <v>321</v>
+      </c>
+      <c r="APQ17">
+        <v>0</v>
+      </c>
+      <c r="APR17">
+        <v>0</v>
+      </c>
+      <c r="APS17">
+        <v>0</v>
+      </c>
+      <c r="APT17">
+        <v>0</v>
+      </c>
+      <c r="APU17">
+        <v>0</v>
+      </c>
+      <c r="APV17">
+        <v>0</v>
+      </c>
+      <c r="APW17">
+        <v>0</v>
+      </c>
+      <c r="APX17">
+        <v>0</v>
+      </c>
+      <c r="APY17">
+        <v>0</v>
+      </c>
+      <c r="APZ17">
+        <v>0</v>
+      </c>
+      <c r="AQA17">
+        <v>0</v>
+      </c>
+      <c r="AQB17">
+        <v>0</v>
+      </c>
+      <c r="AQC17">
+        <v>0</v>
+      </c>
+      <c r="AQD17">
+        <v>0</v>
+      </c>
+      <c r="AQE17">
+        <v>0</v>
+      </c>
+      <c r="AQF17">
+        <v>0</v>
+      </c>
+      <c r="AQG17">
+        <v>0</v>
+      </c>
+      <c r="AQH17">
+        <v>0</v>
+      </c>
+      <c r="AQI17">
+        <v>296</v>
+      </c>
+      <c r="AQJ17">
+        <v>297</v>
+      </c>
     </row>
-    <row r="18" spans="1:1078" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1128" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>6</v>
       </c>
@@ -72037,8 +74591,158 @@
       <c r="AOL18" s="24">
         <v>163</v>
       </c>
+      <c r="AOM18">
+        <v>171</v>
+      </c>
+      <c r="AON18">
+        <v>172</v>
+      </c>
+      <c r="AOO18">
+        <v>173</v>
+      </c>
+      <c r="AOP18">
+        <v>174</v>
+      </c>
+      <c r="AOQ18">
+        <v>175</v>
+      </c>
+      <c r="AOR18">
+        <v>176</v>
+      </c>
+      <c r="AOS18">
+        <v>177</v>
+      </c>
+      <c r="AOT18">
+        <v>178</v>
+      </c>
+      <c r="AOU18">
+        <v>308</v>
+      </c>
+      <c r="AOV18">
+        <v>309</v>
+      </c>
+      <c r="AOW18">
+        <v>193</v>
+      </c>
+      <c r="AOX18">
+        <v>194</v>
+      </c>
+      <c r="AOY18">
+        <v>193</v>
+      </c>
+      <c r="AOZ18">
+        <v>194</v>
+      </c>
+      <c r="APA18">
+        <v>193</v>
+      </c>
+      <c r="APB18">
+        <v>194</v>
+      </c>
+      <c r="APC18">
+        <v>193</v>
+      </c>
+      <c r="APD18">
+        <v>194</v>
+      </c>
+      <c r="APE18">
+        <v>193</v>
+      </c>
+      <c r="APF18">
+        <v>194</v>
+      </c>
+      <c r="APG18">
+        <v>193</v>
+      </c>
+      <c r="APH18">
+        <v>194</v>
+      </c>
+      <c r="API18">
+        <v>193</v>
+      </c>
+      <c r="APJ18">
+        <v>194</v>
+      </c>
+      <c r="APK18">
+        <v>193</v>
+      </c>
+      <c r="APL18">
+        <v>194</v>
+      </c>
+      <c r="APM18">
+        <v>308</v>
+      </c>
+      <c r="APN18">
+        <v>309</v>
+      </c>
+      <c r="APO18">
+        <v>322</v>
+      </c>
+      <c r="APP18">
+        <v>323</v>
+      </c>
+      <c r="APQ18">
+        <v>0</v>
+      </c>
+      <c r="APR18">
+        <v>0</v>
+      </c>
+      <c r="APS18">
+        <v>0</v>
+      </c>
+      <c r="APT18">
+        <v>0</v>
+      </c>
+      <c r="APU18">
+        <v>0</v>
+      </c>
+      <c r="APV18">
+        <v>0</v>
+      </c>
+      <c r="APW18">
+        <v>0</v>
+      </c>
+      <c r="APX18">
+        <v>0</v>
+      </c>
+      <c r="APY18">
+        <v>0</v>
+      </c>
+      <c r="APZ18">
+        <v>0</v>
+      </c>
+      <c r="AQA18">
+        <v>0</v>
+      </c>
+      <c r="AQB18">
+        <v>0</v>
+      </c>
+      <c r="AQC18">
+        <v>0</v>
+      </c>
+      <c r="AQD18">
+        <v>0</v>
+      </c>
+      <c r="AQE18">
+        <v>0</v>
+      </c>
+      <c r="AQF18">
+        <v>0</v>
+      </c>
+      <c r="AQG18">
+        <v>0</v>
+      </c>
+      <c r="AQH18">
+        <v>0</v>
+      </c>
+      <c r="AQI18">
+        <v>298</v>
+      </c>
+      <c r="AQJ18">
+        <v>299</v>
+      </c>
     </row>
-    <row r="19" spans="1:1078" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1128" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>11</v>
       </c>
@@ -75273,8 +77977,158 @@
       <c r="AOL19" s="24">
         <v>172</v>
       </c>
+      <c r="AOM19">
+        <v>179</v>
+      </c>
+      <c r="AON19">
+        <v>180</v>
+      </c>
+      <c r="AOO19">
+        <v>181</v>
+      </c>
+      <c r="AOP19">
+        <v>182</v>
+      </c>
+      <c r="AOQ19">
+        <v>183</v>
+      </c>
+      <c r="AOR19">
+        <v>184</v>
+      </c>
+      <c r="AOS19">
+        <v>185</v>
+      </c>
+      <c r="AOT19">
+        <v>186</v>
+      </c>
+      <c r="AOU19">
+        <v>185</v>
+      </c>
+      <c r="AOV19">
+        <v>186</v>
+      </c>
+      <c r="AOW19">
+        <v>185</v>
+      </c>
+      <c r="AOX19">
+        <v>186</v>
+      </c>
+      <c r="AOY19">
+        <v>185</v>
+      </c>
+      <c r="AOZ19">
+        <v>186</v>
+      </c>
+      <c r="APA19">
+        <v>185</v>
+      </c>
+      <c r="APB19">
+        <v>186</v>
+      </c>
+      <c r="APC19">
+        <v>185</v>
+      </c>
+      <c r="APD19">
+        <v>186</v>
+      </c>
+      <c r="APE19">
+        <v>185</v>
+      </c>
+      <c r="APF19">
+        <v>186</v>
+      </c>
+      <c r="APG19">
+        <v>185</v>
+      </c>
+      <c r="APH19">
+        <v>186</v>
+      </c>
+      <c r="API19">
+        <v>185</v>
+      </c>
+      <c r="APJ19">
+        <v>186</v>
+      </c>
+      <c r="APK19">
+        <v>185</v>
+      </c>
+      <c r="APL19">
+        <v>186</v>
+      </c>
+      <c r="APM19">
+        <v>185</v>
+      </c>
+      <c r="APN19">
+        <v>186</v>
+      </c>
+      <c r="APO19">
+        <v>185</v>
+      </c>
+      <c r="APP19">
+        <v>186</v>
+      </c>
+      <c r="APQ19">
+        <v>314</v>
+      </c>
+      <c r="APR19">
+        <v>315</v>
+      </c>
+      <c r="APS19">
+        <v>0</v>
+      </c>
+      <c r="APT19">
+        <v>0</v>
+      </c>
+      <c r="APU19">
+        <v>0</v>
+      </c>
+      <c r="APV19">
+        <v>0</v>
+      </c>
+      <c r="APW19">
+        <v>0</v>
+      </c>
+      <c r="APX19">
+        <v>0</v>
+      </c>
+      <c r="APY19">
+        <v>0</v>
+      </c>
+      <c r="APZ19">
+        <v>0</v>
+      </c>
+      <c r="AQA19">
+        <v>0</v>
+      </c>
+      <c r="AQB19">
+        <v>0</v>
+      </c>
+      <c r="AQC19">
+        <v>0</v>
+      </c>
+      <c r="AQD19">
+        <v>0</v>
+      </c>
+      <c r="AQE19">
+        <v>0</v>
+      </c>
+      <c r="AQF19">
+        <v>0</v>
+      </c>
+      <c r="AQG19">
+        <v>0</v>
+      </c>
+      <c r="AQH19">
+        <v>0</v>
+      </c>
+      <c r="AQI19">
+        <v>296</v>
+      </c>
+      <c r="AQJ19">
+        <v>297</v>
+      </c>
     </row>
-    <row r="20" spans="1:1078" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1128" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -78509,8 +81363,158 @@
       <c r="AOL20" s="25">
         <v>198</v>
       </c>
+      <c r="AOM20">
+        <v>187</v>
+      </c>
+      <c r="AON20">
+        <v>188</v>
+      </c>
+      <c r="AOO20">
+        <v>189</v>
+      </c>
+      <c r="AOP20">
+        <v>190</v>
+      </c>
+      <c r="AOQ20">
+        <v>191</v>
+      </c>
+      <c r="AOR20">
+        <v>192</v>
+      </c>
+      <c r="AOS20">
+        <v>193</v>
+      </c>
+      <c r="AOT20">
+        <v>194</v>
+      </c>
+      <c r="AOU20">
+        <v>193</v>
+      </c>
+      <c r="AOV20">
+        <v>194</v>
+      </c>
+      <c r="AOW20">
+        <v>193</v>
+      </c>
+      <c r="AOX20">
+        <v>194</v>
+      </c>
+      <c r="AOY20">
+        <v>193</v>
+      </c>
+      <c r="AOZ20">
+        <v>194</v>
+      </c>
+      <c r="APA20">
+        <v>193</v>
+      </c>
+      <c r="APB20">
+        <v>194</v>
+      </c>
+      <c r="APC20">
+        <v>193</v>
+      </c>
+      <c r="APD20">
+        <v>194</v>
+      </c>
+      <c r="APE20">
+        <v>193</v>
+      </c>
+      <c r="APF20">
+        <v>194</v>
+      </c>
+      <c r="APG20">
+        <v>193</v>
+      </c>
+      <c r="APH20">
+        <v>194</v>
+      </c>
+      <c r="API20">
+        <v>193</v>
+      </c>
+      <c r="APJ20">
+        <v>194</v>
+      </c>
+      <c r="APK20">
+        <v>193</v>
+      </c>
+      <c r="APL20">
+        <v>194</v>
+      </c>
+      <c r="APM20">
+        <v>193</v>
+      </c>
+      <c r="APN20">
+        <v>194</v>
+      </c>
+      <c r="APO20">
+        <v>193</v>
+      </c>
+      <c r="APP20">
+        <v>194</v>
+      </c>
+      <c r="APQ20">
+        <v>316</v>
+      </c>
+      <c r="APR20">
+        <v>317</v>
+      </c>
+      <c r="APS20">
+        <v>0</v>
+      </c>
+      <c r="APT20">
+        <v>0</v>
+      </c>
+      <c r="APU20">
+        <v>0</v>
+      </c>
+      <c r="APV20">
+        <v>0</v>
+      </c>
+      <c r="APW20">
+        <v>0</v>
+      </c>
+      <c r="APX20">
+        <v>0</v>
+      </c>
+      <c r="APY20">
+        <v>0</v>
+      </c>
+      <c r="APZ20">
+        <v>0</v>
+      </c>
+      <c r="AQA20">
+        <v>0</v>
+      </c>
+      <c r="AQB20">
+        <v>0</v>
+      </c>
+      <c r="AQC20">
+        <v>0</v>
+      </c>
+      <c r="AQD20">
+        <v>0</v>
+      </c>
+      <c r="AQE20">
+        <v>0</v>
+      </c>
+      <c r="AQF20">
+        <v>0</v>
+      </c>
+      <c r="AQG20">
+        <v>0</v>
+      </c>
+      <c r="AQH20">
+        <v>0</v>
+      </c>
+      <c r="AQI20">
+        <v>298</v>
+      </c>
+      <c r="AQJ20">
+        <v>299</v>
+      </c>
     </row>
-    <row r="22" spans="1:1078" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1128" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>1</v>
       </c>
@@ -82821,6 +85825,206 @@
       <c r="AOL22">
         <f t="shared" ref="AOL22" si="55">AOK22+1</f>
         <v>1078</v>
+      </c>
+      <c r="AOM22">
+        <f t="shared" ref="AOM22" si="56">AOL22+1</f>
+        <v>1079</v>
+      </c>
+      <c r="AON22">
+        <f t="shared" ref="AON22" si="57">AOM22+1</f>
+        <v>1080</v>
+      </c>
+      <c r="AOO22">
+        <f t="shared" ref="AOO22" si="58">AON22+1</f>
+        <v>1081</v>
+      </c>
+      <c r="AOP22">
+        <f t="shared" ref="AOP22" si="59">AOO22+1</f>
+        <v>1082</v>
+      </c>
+      <c r="AOQ22">
+        <f t="shared" ref="AOQ22" si="60">AOP22+1</f>
+        <v>1083</v>
+      </c>
+      <c r="AOR22">
+        <f t="shared" ref="AOR22" si="61">AOQ22+1</f>
+        <v>1084</v>
+      </c>
+      <c r="AOS22">
+        <f t="shared" ref="AOS22" si="62">AOR22+1</f>
+        <v>1085</v>
+      </c>
+      <c r="AOT22">
+        <f t="shared" ref="AOT22" si="63">AOS22+1</f>
+        <v>1086</v>
+      </c>
+      <c r="AOU22">
+        <f t="shared" ref="AOU22" si="64">AOT22+1</f>
+        <v>1087</v>
+      </c>
+      <c r="AOV22">
+        <f t="shared" ref="AOV22" si="65">AOU22+1</f>
+        <v>1088</v>
+      </c>
+      <c r="AOW22">
+        <f t="shared" ref="AOW22" si="66">AOV22+1</f>
+        <v>1089</v>
+      </c>
+      <c r="AOX22">
+        <f t="shared" ref="AOX22" si="67">AOW22+1</f>
+        <v>1090</v>
+      </c>
+      <c r="AOY22">
+        <f t="shared" ref="AOY22" si="68">AOX22+1</f>
+        <v>1091</v>
+      </c>
+      <c r="AOZ22">
+        <f t="shared" ref="AOZ22" si="69">AOY22+1</f>
+        <v>1092</v>
+      </c>
+      <c r="APA22">
+        <f t="shared" ref="APA22" si="70">AOZ22+1</f>
+        <v>1093</v>
+      </c>
+      <c r="APB22">
+        <f t="shared" ref="APB22" si="71">APA22+1</f>
+        <v>1094</v>
+      </c>
+      <c r="APC22">
+        <f t="shared" ref="APC22" si="72">APB22+1</f>
+        <v>1095</v>
+      </c>
+      <c r="APD22">
+        <f t="shared" ref="APD22" si="73">APC22+1</f>
+        <v>1096</v>
+      </c>
+      <c r="APE22">
+        <f t="shared" ref="APE22" si="74">APD22+1</f>
+        <v>1097</v>
+      </c>
+      <c r="APF22">
+        <f t="shared" ref="APF22" si="75">APE22+1</f>
+        <v>1098</v>
+      </c>
+      <c r="APG22">
+        <f t="shared" ref="APG22" si="76">APF22+1</f>
+        <v>1099</v>
+      </c>
+      <c r="APH22">
+        <f t="shared" ref="APH22" si="77">APG22+1</f>
+        <v>1100</v>
+      </c>
+      <c r="API22">
+        <f t="shared" ref="API22" si="78">APH22+1</f>
+        <v>1101</v>
+      </c>
+      <c r="APJ22">
+        <f t="shared" ref="APJ22" si="79">API22+1</f>
+        <v>1102</v>
+      </c>
+      <c r="APK22">
+        <f t="shared" ref="APK22" si="80">APJ22+1</f>
+        <v>1103</v>
+      </c>
+      <c r="APL22">
+        <f t="shared" ref="APL22" si="81">APK22+1</f>
+        <v>1104</v>
+      </c>
+      <c r="APM22">
+        <f t="shared" ref="APM22" si="82">APL22+1</f>
+        <v>1105</v>
+      </c>
+      <c r="APN22">
+        <f t="shared" ref="APN22" si="83">APM22+1</f>
+        <v>1106</v>
+      </c>
+      <c r="APO22">
+        <f t="shared" ref="APO22" si="84">APN22+1</f>
+        <v>1107</v>
+      </c>
+      <c r="APP22">
+        <f t="shared" ref="APP22" si="85">APO22+1</f>
+        <v>1108</v>
+      </c>
+      <c r="APQ22">
+        <f t="shared" ref="APQ22" si="86">APP22+1</f>
+        <v>1109</v>
+      </c>
+      <c r="APR22">
+        <f t="shared" ref="APR22" si="87">APQ22+1</f>
+        <v>1110</v>
+      </c>
+      <c r="APS22">
+        <f t="shared" ref="APS22" si="88">APR22+1</f>
+        <v>1111</v>
+      </c>
+      <c r="APT22">
+        <f t="shared" ref="APT22" si="89">APS22+1</f>
+        <v>1112</v>
+      </c>
+      <c r="APU22">
+        <f t="shared" ref="APU22" si="90">APT22+1</f>
+        <v>1113</v>
+      </c>
+      <c r="APV22">
+        <f t="shared" ref="APV22" si="91">APU22+1</f>
+        <v>1114</v>
+      </c>
+      <c r="APW22">
+        <f t="shared" ref="APW22" si="92">APV22+1</f>
+        <v>1115</v>
+      </c>
+      <c r="APX22">
+        <f t="shared" ref="APX22" si="93">APW22+1</f>
+        <v>1116</v>
+      </c>
+      <c r="APY22">
+        <f t="shared" ref="APY22" si="94">APX22+1</f>
+        <v>1117</v>
+      </c>
+      <c r="APZ22">
+        <f t="shared" ref="APZ22" si="95">APY22+1</f>
+        <v>1118</v>
+      </c>
+      <c r="AQA22">
+        <f t="shared" ref="AQA22" si="96">APZ22+1</f>
+        <v>1119</v>
+      </c>
+      <c r="AQB22">
+        <f t="shared" ref="AQB22" si="97">AQA22+1</f>
+        <v>1120</v>
+      </c>
+      <c r="AQC22">
+        <f t="shared" ref="AQC22" si="98">AQB22+1</f>
+        <v>1121</v>
+      </c>
+      <c r="AQD22">
+        <f t="shared" ref="AQD22" si="99">AQC22+1</f>
+        <v>1122</v>
+      </c>
+      <c r="AQE22">
+        <f t="shared" ref="AQE22" si="100">AQD22+1</f>
+        <v>1123</v>
+      </c>
+      <c r="AQF22">
+        <f t="shared" ref="AQF22" si="101">AQE22+1</f>
+        <v>1124</v>
+      </c>
+      <c r="AQG22">
+        <f t="shared" ref="AQG22" si="102">AQF22+1</f>
+        <v>1125</v>
+      </c>
+      <c r="AQH22">
+        <f t="shared" ref="AQH22" si="103">AQG22+1</f>
+        <v>1126</v>
+      </c>
+      <c r="AQI22">
+        <f t="shared" ref="AQI22" si="104">AQH22+1</f>
+        <v>1127</v>
+      </c>
+      <c r="AQJ22">
+        <f t="shared" ref="AQJ22" si="105">AQI22+1</f>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>

--- a/GameSDL26_2/map_2/Book2.xlsx
+++ b/GameSDL26_2/map_2/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEOMETRYDASH_ver_2\lemon\GameSDL26_2\map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493EB16B-2467-4FD9-8CD4-CCCAF70E0D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48838849-3DA6-4CCE-92A0-6BC1CB7A2240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09EF9F5-0415-444F-A6C4-CAEE74711D34}"/>
   </bookViews>
@@ -13214,23 +13214,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_25" connectionId="13" xr16:uid="{9DF8EC1D-53DE-44FB-A45C-CFD363F8ABA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_25" connectionId="13" xr16:uid="{9DF8EC1D-53DE-44FB-A45C-CFD363F8ABA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13238,59 +13238,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_7" connectionId="18" xr16:uid="{710E395A-4538-4745-9B73-E310BE6760F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_24" connectionId="12" xr16:uid="{9FBB36A4-77C0-4825-88D4-A1E308C616AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_11" connectionId="4" xr16:uid="{08FDAA02-DD3B-430D-A15E-9D155D87B823}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="10" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="15" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_5" connectionId="16" xr16:uid="{FC2D8D11-D05C-43AB-905E-2AD092A0DD59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="15" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_11" connectionId="4" xr16:uid="{08FDAA02-DD3B-430D-A15E-9D155D87B823}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_24" connectionId="12" xr16:uid="{9FBB36A4-77C0-4825-88D4-A1E308C616AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="17" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_7" connectionId="18" xr16:uid="{710E395A-4538-4745-9B73-E310BE6760F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="17" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13592,8 +13592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3286C0E-A788-441C-87F1-658D2013A9EA}">
   <dimension ref="A1:AQJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AOT1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AHW22" sqref="AHW22"/>
+    <sheetView tabSelected="1" topLeftCell="AOZ1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQC11" sqref="AQC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17126,52 +17126,52 @@
         <v>403</v>
       </c>
       <c r="APS1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="APT1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="APU1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="APV1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="APW1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="APX1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="APY1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="APZ1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="AQA1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="AQB1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="AQC1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="AQD1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="AQE1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="AQF1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="AQG1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="AQH1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="AQI1">
         <v>296</v>
@@ -20512,58 +20512,58 @@
         <v>405</v>
       </c>
       <c r="APS2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="APT2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="APU2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="APV2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="APW2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="APX2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="APY2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="APZ2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AQA2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AQB2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AQC2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AQD2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AQE2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AQF2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AQG2">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AQH2">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="AQI2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ2">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:1128" x14ac:dyDescent="0.3">
@@ -27332,10 +27332,10 @@
         <v>0</v>
       </c>
       <c r="AQI4">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ4">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:1128" x14ac:dyDescent="0.3">
@@ -34104,10 +34104,10 @@
         <v>0</v>
       </c>
       <c r="AQI6">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ6">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:1128" x14ac:dyDescent="0.3">
@@ -40876,10 +40876,10 @@
         <v>0</v>
       </c>
       <c r="AQI8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ8">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:1128" x14ac:dyDescent="0.3">
@@ -47648,10 +47648,10 @@
         <v>0</v>
       </c>
       <c r="AQI10">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ10">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:1128" x14ac:dyDescent="0.3">
@@ -54420,10 +54420,10 @@
         <v>0</v>
       </c>
       <c r="AQI12">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ12">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:1128" x14ac:dyDescent="0.3">
@@ -61192,10 +61192,10 @@
         <v>0</v>
       </c>
       <c r="AQI14">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ14">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:1128" x14ac:dyDescent="0.3">
@@ -67964,10 +67964,10 @@
         <v>0</v>
       </c>
       <c r="AQI16">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ16">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:1128" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -74736,10 +74736,10 @@
         <v>0</v>
       </c>
       <c r="AQI18">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ18">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:1128" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -81508,10 +81508,10 @@
         <v>0</v>
       </c>
       <c r="AQI20">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AQJ20">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:1128" x14ac:dyDescent="0.3">

--- a/GameSDL26_2/map_2/Book2.xlsx
+++ b/GameSDL26_2/map_2/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEOMETRYDASH_ver_2\lemon\GameSDL26_2\map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48838849-3DA6-4CCE-92A0-6BC1CB7A2240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C05A1B-E654-4005-B65E-AF1925790935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09EF9F5-0415-444F-A6C4-CAEE74711D34}"/>
   </bookViews>
@@ -13214,23 +13214,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_25" connectionId="13" xr16:uid="{9DF8EC1D-53DE-44FB-A45C-CFD363F8ABA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13238,23 +13238,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_5" connectionId="16" xr16:uid="{FC2D8D11-D05C-43AB-905E-2AD092A0DD59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_11" connectionId="4" xr16:uid="{08FDAA02-DD3B-430D-A15E-9D155D87B823}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_7" connectionId="18" xr16:uid="{710E395A-4538-4745-9B73-E310BE6760F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="17" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13262,19 +13262,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_11" connectionId="4" xr16:uid="{08FDAA02-DD3B-430D-A15E-9D155D87B823}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="10" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="10" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13282,15 +13282,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_5" connectionId="16" xr16:uid="{FC2D8D11-D05C-43AB-905E-2AD092A0DD59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="17" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13592,8 +13592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3286C0E-A788-441C-87F1-658D2013A9EA}">
   <dimension ref="A1:AQJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AOZ1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQC11" sqref="AQC11"/>
+    <sheetView tabSelected="1" topLeftCell="OL1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="QS9" sqref="A1:AQJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14989,41 +14989,41 @@
       <c r="OH1">
         <v>0</v>
       </c>
-      <c r="OI1">
-        <v>0</v>
-      </c>
-      <c r="OJ1">
-        <v>0</v>
-      </c>
-      <c r="OK1">
-        <v>0</v>
-      </c>
-      <c r="OL1">
-        <v>0</v>
-      </c>
-      <c r="OM1">
-        <v>0</v>
-      </c>
-      <c r="ON1">
-        <v>0</v>
-      </c>
-      <c r="OO1">
-        <v>0</v>
-      </c>
-      <c r="OP1">
-        <v>0</v>
-      </c>
-      <c r="OQ1">
-        <v>0</v>
-      </c>
-      <c r="OR1">
-        <v>0</v>
-      </c>
-      <c r="OS1">
-        <v>0</v>
-      </c>
-      <c r="OT1">
-        <v>0</v>
+      <c r="OI1" s="8">
+        <v>121</v>
+      </c>
+      <c r="OJ1" s="8">
+        <v>122</v>
+      </c>
+      <c r="OK1" s="8">
+        <v>123</v>
+      </c>
+      <c r="OL1" s="8">
+        <v>124</v>
+      </c>
+      <c r="OM1" s="8">
+        <v>121</v>
+      </c>
+      <c r="ON1" s="8">
+        <v>122</v>
+      </c>
+      <c r="OO1" s="8">
+        <v>123</v>
+      </c>
+      <c r="OP1" s="8">
+        <v>124</v>
+      </c>
+      <c r="OQ1" s="8">
+        <v>121</v>
+      </c>
+      <c r="OR1" s="8">
+        <v>122</v>
+      </c>
+      <c r="OS1" s="8">
+        <v>123</v>
+      </c>
+      <c r="OT1" s="8">
+        <v>124</v>
       </c>
       <c r="OU1" s="10">
         <v>47</v>
@@ -15079,47 +15079,47 @@
       <c r="PL1" s="10">
         <v>48</v>
       </c>
-      <c r="PM1">
-        <v>0</v>
-      </c>
-      <c r="PN1">
-        <v>0</v>
-      </c>
-      <c r="PO1">
-        <v>0</v>
-      </c>
-      <c r="PP1">
-        <v>0</v>
-      </c>
-      <c r="PQ1">
-        <v>0</v>
-      </c>
-      <c r="PR1">
-        <v>0</v>
-      </c>
-      <c r="PS1">
-        <v>0</v>
-      </c>
-      <c r="PT1">
-        <v>0</v>
-      </c>
-      <c r="PU1">
-        <v>0</v>
-      </c>
-      <c r="PV1">
-        <v>0</v>
-      </c>
-      <c r="PW1">
-        <v>0</v>
-      </c>
-      <c r="PX1">
-        <v>0</v>
-      </c>
-      <c r="PY1">
-        <v>0</v>
-      </c>
-      <c r="PZ1">
-        <v>0</v>
+      <c r="PM1" s="8">
+        <v>121</v>
+      </c>
+      <c r="PN1" s="8">
+        <v>122</v>
+      </c>
+      <c r="PO1" s="8">
+        <v>123</v>
+      </c>
+      <c r="PP1" s="8">
+        <v>124</v>
+      </c>
+      <c r="PQ1" s="8">
+        <v>121</v>
+      </c>
+      <c r="PR1" s="8">
+        <v>122</v>
+      </c>
+      <c r="PS1" s="8">
+        <v>123</v>
+      </c>
+      <c r="PT1" s="8">
+        <v>124</v>
+      </c>
+      <c r="PU1" s="8">
+        <v>121</v>
+      </c>
+      <c r="PV1" s="8">
+        <v>122</v>
+      </c>
+      <c r="PW1" s="8">
+        <v>123</v>
+      </c>
+      <c r="PX1" s="8">
+        <v>124</v>
+      </c>
+      <c r="PY1" s="10">
+        <v>47</v>
+      </c>
+      <c r="PZ1" s="10">
+        <v>48</v>
       </c>
       <c r="QA1" s="10">
         <v>47</v>
@@ -15175,29 +15175,29 @@
       <c r="QR1" s="10">
         <v>48</v>
       </c>
-      <c r="QS1">
-        <v>0</v>
-      </c>
-      <c r="QT1">
-        <v>0</v>
-      </c>
-      <c r="QU1">
-        <v>0</v>
-      </c>
-      <c r="QV1">
-        <v>0</v>
-      </c>
-      <c r="QW1">
-        <v>0</v>
-      </c>
-      <c r="QX1">
-        <v>0</v>
-      </c>
-      <c r="QY1">
-        <v>0</v>
-      </c>
-      <c r="QZ1">
-        <v>0</v>
+      <c r="QS1" s="8">
+        <v>121</v>
+      </c>
+      <c r="QT1" s="8">
+        <v>122</v>
+      </c>
+      <c r="QU1" s="8">
+        <v>123</v>
+      </c>
+      <c r="QV1" s="8">
+        <v>124</v>
+      </c>
+      <c r="QW1" s="8">
+        <v>121</v>
+      </c>
+      <c r="QX1" s="8">
+        <v>122</v>
+      </c>
+      <c r="QY1" s="8">
+        <v>123</v>
+      </c>
+      <c r="QZ1" s="8">
+        <v>124</v>
       </c>
       <c r="RA1">
         <v>0</v>
@@ -18501,11 +18501,11 @@
       <c r="PX2">
         <v>0</v>
       </c>
-      <c r="PY2">
-        <v>0</v>
-      </c>
-      <c r="PZ2">
-        <v>0</v>
+      <c r="PY2" s="10">
+        <v>45</v>
+      </c>
+      <c r="PZ2" s="10">
+        <v>46</v>
       </c>
       <c r="QA2" s="10">
         <v>45</v>
@@ -48978,11 +48978,11 @@
       <c r="PY11" s="10">
         <v>38</v>
       </c>
-      <c r="PZ11" s="10">
-        <v>37</v>
-      </c>
-      <c r="QA11" s="10">
-        <v>38</v>
+      <c r="PZ11">
+        <v>0</v>
+      </c>
+      <c r="QA11">
+        <v>0</v>
       </c>
       <c r="QB11">
         <v>0</v>
@@ -52364,11 +52364,11 @@
       <c r="PY12" s="10">
         <v>40</v>
       </c>
-      <c r="PZ12" s="10">
-        <v>39</v>
-      </c>
-      <c r="QA12" s="10">
-        <v>40</v>
+      <c r="PZ12">
+        <v>0</v>
+      </c>
+      <c r="QA12">
+        <v>0</v>
       </c>
       <c r="QB12">
         <v>0</v>
@@ -55660,56 +55660,56 @@
       <c r="OU13" s="10">
         <v>42</v>
       </c>
-      <c r="OV13">
-        <v>0</v>
-      </c>
-      <c r="OW13">
-        <v>0</v>
-      </c>
-      <c r="OX13">
-        <v>0</v>
-      </c>
-      <c r="OY13">
-        <v>0</v>
-      </c>
-      <c r="OZ13">
-        <v>0</v>
-      </c>
-      <c r="PA13">
-        <v>0</v>
-      </c>
-      <c r="PB13">
-        <v>0</v>
-      </c>
-      <c r="PC13">
-        <v>0</v>
-      </c>
-      <c r="PD13">
-        <v>0</v>
-      </c>
-      <c r="PE13">
-        <v>0</v>
-      </c>
-      <c r="PF13">
-        <v>0</v>
-      </c>
-      <c r="PG13">
-        <v>0</v>
-      </c>
-      <c r="PH13">
-        <v>0</v>
-      </c>
-      <c r="PI13">
-        <v>0</v>
-      </c>
-      <c r="PJ13">
-        <v>0</v>
-      </c>
-      <c r="PK13">
-        <v>0</v>
-      </c>
-      <c r="PL13">
-        <v>0</v>
+      <c r="OV13" s="1">
+        <v>106</v>
+      </c>
+      <c r="OW13" s="1">
+        <v>106</v>
+      </c>
+      <c r="OX13" s="1">
+        <v>106</v>
+      </c>
+      <c r="OY13" s="1">
+        <v>106</v>
+      </c>
+      <c r="OZ13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PA13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PB13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PC13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PD13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PE13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PF13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PG13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PH13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PI13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PJ13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PK13" s="1">
+        <v>106</v>
+      </c>
+      <c r="PL13" s="1">
+        <v>106</v>
       </c>
       <c r="PM13" s="10">
         <v>41</v>
@@ -55750,59 +55750,59 @@
       <c r="PY13" s="10">
         <v>42</v>
       </c>
-      <c r="PZ13" s="10">
-        <v>41</v>
-      </c>
-      <c r="QA13" s="10">
-        <v>42</v>
-      </c>
-      <c r="QB13">
-        <v>0</v>
-      </c>
-      <c r="QC13">
-        <v>0</v>
-      </c>
-      <c r="QD13">
-        <v>0</v>
-      </c>
-      <c r="QE13">
-        <v>0</v>
-      </c>
-      <c r="QF13">
-        <v>0</v>
-      </c>
-      <c r="QG13">
-        <v>0</v>
-      </c>
-      <c r="QH13">
-        <v>0</v>
-      </c>
-      <c r="QI13">
-        <v>0</v>
-      </c>
-      <c r="QJ13">
-        <v>0</v>
-      </c>
-      <c r="QK13">
-        <v>0</v>
-      </c>
-      <c r="QL13">
-        <v>0</v>
-      </c>
-      <c r="QM13">
-        <v>0</v>
-      </c>
-      <c r="QN13">
-        <v>0</v>
-      </c>
-      <c r="QO13">
-        <v>0</v>
-      </c>
-      <c r="QP13">
-        <v>0</v>
-      </c>
-      <c r="QQ13">
-        <v>0</v>
+      <c r="PZ13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QA13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QB13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QC13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QD13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QE13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QF13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QG13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QH13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QI13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QJ13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QK13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QL13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QM13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QN13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QO13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QP13" s="1">
+        <v>106</v>
+      </c>
+      <c r="QQ13" s="1">
+        <v>106</v>
       </c>
       <c r="QR13" s="10">
         <v>41</v>
@@ -59046,56 +59046,56 @@
       <c r="OU14" s="10">
         <v>44</v>
       </c>
-      <c r="OV14">
-        <v>0</v>
-      </c>
-      <c r="OW14">
-        <v>0</v>
-      </c>
-      <c r="OX14">
-        <v>0</v>
-      </c>
-      <c r="OY14">
-        <v>0</v>
-      </c>
-      <c r="OZ14">
-        <v>0</v>
-      </c>
-      <c r="PA14">
-        <v>0</v>
-      </c>
-      <c r="PB14">
-        <v>0</v>
-      </c>
-      <c r="PC14">
-        <v>0</v>
-      </c>
-      <c r="PD14">
-        <v>0</v>
-      </c>
-      <c r="PE14">
-        <v>0</v>
-      </c>
-      <c r="PF14">
-        <v>0</v>
-      </c>
-      <c r="PG14">
-        <v>0</v>
-      </c>
-      <c r="PH14">
-        <v>0</v>
-      </c>
-      <c r="PI14">
-        <v>0</v>
-      </c>
-      <c r="PJ14">
-        <v>0</v>
-      </c>
-      <c r="PK14">
-        <v>0</v>
-      </c>
-      <c r="PL14">
-        <v>0</v>
+      <c r="OV14" s="1">
+        <v>141</v>
+      </c>
+      <c r="OW14" s="1">
+        <v>141</v>
+      </c>
+      <c r="OX14" s="1">
+        <v>141</v>
+      </c>
+      <c r="OY14" s="1">
+        <v>141</v>
+      </c>
+      <c r="OZ14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PA14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PB14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PC14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PD14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PE14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PF14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PG14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PH14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PI14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PJ14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PK14" s="1">
+        <v>141</v>
+      </c>
+      <c r="PL14" s="1">
+        <v>141</v>
       </c>
       <c r="PM14" s="10">
         <v>43</v>
@@ -59136,59 +59136,59 @@
       <c r="PY14" s="10">
         <v>44</v>
       </c>
-      <c r="PZ14" s="10">
-        <v>43</v>
-      </c>
-      <c r="QA14" s="10">
-        <v>44</v>
-      </c>
-      <c r="QB14">
-        <v>0</v>
-      </c>
-      <c r="QC14">
-        <v>0</v>
-      </c>
-      <c r="QD14">
-        <v>0</v>
-      </c>
-      <c r="QE14">
-        <v>0</v>
-      </c>
-      <c r="QF14">
-        <v>0</v>
-      </c>
-      <c r="QG14">
-        <v>0</v>
-      </c>
-      <c r="QH14">
-        <v>0</v>
-      </c>
-      <c r="QI14">
-        <v>0</v>
-      </c>
-      <c r="QJ14">
-        <v>0</v>
-      </c>
-      <c r="QK14">
-        <v>0</v>
-      </c>
-      <c r="QL14">
-        <v>0</v>
-      </c>
-      <c r="QM14">
-        <v>0</v>
-      </c>
-      <c r="QN14">
-        <v>0</v>
-      </c>
-      <c r="QO14">
-        <v>0</v>
-      </c>
-      <c r="QP14">
-        <v>0</v>
-      </c>
-      <c r="QQ14">
-        <v>0</v>
+      <c r="PZ14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QA14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QB14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QC14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QD14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QE14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QF14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QG14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QH14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QI14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QJ14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QK14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QL14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QM14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QN14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QO14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QP14" s="1">
+        <v>141</v>
+      </c>
+      <c r="QQ14" s="1">
+        <v>141</v>
       </c>
       <c r="QR14" s="10">
         <v>43</v>
@@ -62432,56 +62432,56 @@
       <c r="OU15" s="10">
         <v>42</v>
       </c>
-      <c r="OV15">
-        <v>0</v>
-      </c>
-      <c r="OW15">
-        <v>0</v>
-      </c>
-      <c r="OX15">
-        <v>0</v>
-      </c>
-      <c r="OY15">
-        <v>0</v>
-      </c>
-      <c r="OZ15">
-        <v>0</v>
-      </c>
-      <c r="PA15">
-        <v>0</v>
-      </c>
-      <c r="PB15">
-        <v>0</v>
-      </c>
-      <c r="PC15">
-        <v>0</v>
-      </c>
-      <c r="PD15">
-        <v>0</v>
-      </c>
-      <c r="PE15">
-        <v>0</v>
-      </c>
-      <c r="PF15">
-        <v>0</v>
-      </c>
-      <c r="PG15">
-        <v>0</v>
-      </c>
-      <c r="PH15">
-        <v>0</v>
-      </c>
-      <c r="PI15">
-        <v>0</v>
-      </c>
-      <c r="PJ15">
-        <v>0</v>
-      </c>
-      <c r="PK15">
-        <v>0</v>
-      </c>
-      <c r="PL15">
-        <v>0</v>
+      <c r="OV15" s="1">
+        <v>141</v>
+      </c>
+      <c r="OW15" s="1">
+        <v>141</v>
+      </c>
+      <c r="OX15" s="1">
+        <v>141</v>
+      </c>
+      <c r="OY15" s="1">
+        <v>141</v>
+      </c>
+      <c r="OZ15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PA15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PB15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PC15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PD15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PE15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PF15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PG15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PH15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PI15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PJ15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PK15" s="1">
+        <v>141</v>
+      </c>
+      <c r="PL15" s="1">
+        <v>141</v>
       </c>
       <c r="PM15" s="10">
         <v>41</v>
@@ -62522,59 +62522,59 @@
       <c r="PY15" s="10">
         <v>42</v>
       </c>
-      <c r="PZ15" s="10">
-        <v>41</v>
-      </c>
-      <c r="QA15" s="10">
-        <v>42</v>
-      </c>
-      <c r="QB15">
-        <v>0</v>
-      </c>
-      <c r="QC15">
-        <v>0</v>
-      </c>
-      <c r="QD15">
-        <v>0</v>
-      </c>
-      <c r="QE15">
-        <v>0</v>
-      </c>
-      <c r="QF15">
-        <v>0</v>
-      </c>
-      <c r="QG15">
-        <v>0</v>
-      </c>
-      <c r="QH15">
-        <v>0</v>
-      </c>
-      <c r="QI15">
-        <v>0</v>
-      </c>
-      <c r="QJ15">
-        <v>0</v>
-      </c>
-      <c r="QK15">
-        <v>0</v>
-      </c>
-      <c r="QL15">
-        <v>0</v>
-      </c>
-      <c r="QM15">
-        <v>0</v>
-      </c>
-      <c r="QN15">
-        <v>0</v>
-      </c>
-      <c r="QO15">
-        <v>0</v>
-      </c>
-      <c r="QP15">
-        <v>0</v>
-      </c>
-      <c r="QQ15">
-        <v>0</v>
+      <c r="PZ15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QA15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QB15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QC15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QD15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QE15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QF15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QG15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QH15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QI15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QJ15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QK15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QL15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QM15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QN15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QO15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QP15" s="1">
+        <v>141</v>
+      </c>
+      <c r="QQ15" s="1">
+        <v>141</v>
       </c>
       <c r="QR15" s="10">
         <v>41</v>
@@ -65818,56 +65818,56 @@
       <c r="OU16" s="10">
         <v>44</v>
       </c>
-      <c r="OV16">
-        <v>0</v>
-      </c>
-      <c r="OW16">
-        <v>0</v>
-      </c>
-      <c r="OX16">
-        <v>0</v>
-      </c>
-      <c r="OY16">
-        <v>0</v>
-      </c>
-      <c r="OZ16">
-        <v>0</v>
-      </c>
-      <c r="PA16">
-        <v>0</v>
-      </c>
-      <c r="PB16">
-        <v>0</v>
-      </c>
-      <c r="PC16">
-        <v>0</v>
-      </c>
-      <c r="PD16">
-        <v>0</v>
-      </c>
-      <c r="PE16">
-        <v>0</v>
-      </c>
-      <c r="PF16">
-        <v>0</v>
-      </c>
-      <c r="PG16">
-        <v>0</v>
-      </c>
-      <c r="PH16">
-        <v>0</v>
-      </c>
-      <c r="PI16">
-        <v>0</v>
-      </c>
-      <c r="PJ16">
-        <v>0</v>
-      </c>
-      <c r="PK16">
-        <v>0</v>
-      </c>
-      <c r="PL16">
-        <v>0</v>
+      <c r="OV16" s="1">
+        <v>108</v>
+      </c>
+      <c r="OW16" s="1">
+        <v>108</v>
+      </c>
+      <c r="OX16" s="1">
+        <v>108</v>
+      </c>
+      <c r="OY16" s="1">
+        <v>108</v>
+      </c>
+      <c r="OZ16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PA16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PB16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PC16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PD16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PE16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PF16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PG16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PH16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PI16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PJ16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PK16" s="1">
+        <v>108</v>
+      </c>
+      <c r="PL16" s="1">
+        <v>108</v>
       </c>
       <c r="PM16" s="10">
         <v>43</v>
@@ -65908,59 +65908,59 @@
       <c r="PY16" s="10">
         <v>44</v>
       </c>
-      <c r="PZ16" s="10">
-        <v>43</v>
-      </c>
-      <c r="QA16" s="10">
-        <v>44</v>
-      </c>
-      <c r="QB16">
-        <v>0</v>
-      </c>
-      <c r="QC16">
-        <v>0</v>
-      </c>
-      <c r="QD16">
-        <v>0</v>
-      </c>
-      <c r="QE16">
-        <v>0</v>
-      </c>
-      <c r="QF16">
-        <v>0</v>
-      </c>
-      <c r="QG16">
-        <v>0</v>
-      </c>
-      <c r="QH16">
-        <v>0</v>
-      </c>
-      <c r="QI16">
-        <v>0</v>
-      </c>
-      <c r="QJ16">
-        <v>0</v>
-      </c>
-      <c r="QK16">
-        <v>0</v>
-      </c>
-      <c r="QL16">
-        <v>0</v>
-      </c>
-      <c r="QM16">
-        <v>0</v>
-      </c>
-      <c r="QN16">
-        <v>0</v>
-      </c>
-      <c r="QO16">
-        <v>0</v>
-      </c>
-      <c r="QP16">
-        <v>0</v>
-      </c>
-      <c r="QQ16">
-        <v>0</v>
+      <c r="PZ16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QA16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QB16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QC16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QD16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QE16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QF16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QG16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QH16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QI16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QJ16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QK16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QL16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QM16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QN16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QO16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QP16" s="1">
+        <v>108</v>
+      </c>
+      <c r="QQ16" s="1">
+        <v>108</v>
       </c>
       <c r="QR16" s="10">
         <v>43</v>
@@ -72459,91 +72459,91 @@
         <v>7</v>
       </c>
       <c r="ND18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NE18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NF18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NG18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NH18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NI18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NJ18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NK18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NL18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NM18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NN18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NO18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NP18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NQ18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NR18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NS18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NT18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NU18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NV18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NW18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NX18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NY18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NZ18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OA18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OB18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OC18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OD18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OE18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OF18" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OG18" s="17">
         <v>49</v>
@@ -75845,91 +75845,91 @@
         <v>12</v>
       </c>
       <c r="ND19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NE19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NF19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NG19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NH19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NI19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NJ19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NK19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NL19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NM19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NN19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NO19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NP19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NQ19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NR19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NS19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NT19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NU19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NV19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NW19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NX19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NY19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="NZ19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OA19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OB19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OC19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OD19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OE19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OF19" s="1">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="OG19" s="17">
         <v>49</v>

--- a/GameSDL26_2/map_2/Book2.xlsx
+++ b/GameSDL26_2/map_2/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEOMETRYDASH_ver_2\lemon\GameSDL26_2\map_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C05A1B-E654-4005-B65E-AF1925790935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DA267-6BB2-4197-A827-E5246EBA14BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F09EF9F5-0415-444F-A6C4-CAEE74711D34}"/>
   </bookViews>
@@ -13214,23 +13214,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_25" connectionId="13" xr16:uid="{9DF8EC1D-53DE-44FB-A45C-CFD363F8ABA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_13" connectionId="6" xr16:uid="{E3A06204-4978-48CC-9914-6D1346FF1A19}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_15" connectionId="8" xr16:uid="{F0B13563-1EE6-4655-B660-A073A0A1D138}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13238,59 +13238,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="10" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="17" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_25" connectionId="13" xr16:uid="{9DF8EC1D-53DE-44FB-A45C-CFD363F8ABA7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_5" connectionId="16" xr16:uid="{FC2D8D11-D05C-43AB-905E-2AD092A0DD59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="15" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_1" connectionId="2" xr16:uid="{39699C56-F6FB-4EA9-A510-5EC10F983698}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_11" connectionId="4" xr16:uid="{08FDAA02-DD3B-430D-A15E-9D155D87B823}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_24" connectionId="12" xr16:uid="{9FBB36A4-77C0-4825-88D4-A1E308C616AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_7" connectionId="18" xr16:uid="{710E395A-4538-4745-9B73-E310BE6760F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_23" connectionId="11" xr16:uid="{38922C56-874B-403A-92F1-3D46F04F6DF7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_6" connectionId="17" xr16:uid="{23F693EC-1598-4839-81A4-B071BC54B95C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_24" connectionId="12" xr16:uid="{9FBB36A4-77C0-4825-88D4-A1E308C616AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_10" connectionId="3" xr16:uid="{02DC0BBC-281F-44C8-899C-C76B712CB7EF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_8" connectionId="19" xr16:uid="{E24EC05A-5490-4A34-8D26-295F2042755C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_2" connectionId="10" xr16:uid="{A99FEE0C-D532-4113-BF28-8A15F46EE8E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_22" connectionId="9" xr16:uid="{4A920594-BC2A-48F8-9442-87BA2A857E4B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_4" connectionId="15" xr16:uid="{8BB89F08-02AF-42EF-9FE6-1374B747AF94}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_3" connectionId="14" xr16:uid="{0FBDDC12-3197-436B-BE39-7F35D58A1A90}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_14" connectionId="7" xr16:uid="{8AB1CEC2-4519-4603-A728-951817CA3C1C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel_12" connectionId="5" xr16:uid="{6014B243-B038-4DEB-A014-DB857FF6D755}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="map_22222_excel" connectionId="1" xr16:uid="{9EDEE1C0-2B69-494F-AA14-6EA7BB325F2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13592,7 +13592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3286C0E-A788-441C-87F1-658D2013A9EA}">
   <dimension ref="A1:AQJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="OL1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="QS9" sqref="A1:AQJ20"/>
     </sheetView>
   </sheetViews>
@@ -13688,13 +13688,14 @@
     <col min="367" max="367" width="4.5546875" customWidth="1"/>
     <col min="368" max="396" width="5.88671875" customWidth="1"/>
     <col min="397" max="398" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="399" max="430" width="3" bestFit="1" customWidth="1"/>
+    <col min="399" max="401" width="3" bestFit="1" customWidth="1"/>
+    <col min="402" max="430" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="431" max="431" width="4.109375" customWidth="1"/>
     <col min="432" max="432" width="4" customWidth="1"/>
     <col min="433" max="433" width="6.44140625" customWidth="1"/>
-    <col min="434" max="466" width="3" bestFit="1" customWidth="1"/>
-    <col min="467" max="469" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="470" max="471" width="3" bestFit="1" customWidth="1"/>
+    <col min="434" max="466" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="467" max="469" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="470" max="471" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="472" max="472" width="5.33203125" customWidth="1"/>
     <col min="473" max="473" width="4.88671875" customWidth="1"/>
     <col min="474" max="510" width="4.6640625" customWidth="1"/>
